--- a/01.byd-DataFactory/1.ArchitectureDossier/artifacts/02.cots-list/BYD-DF_COTSLists_v01.00.xlsx
+++ b/01.byd-DataFactory/1.ArchitectureDossier/artifacts/02.cots-list/BYD-DF_COTSLists_v01.00.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWilbert/byd-all-documentation/01.byd-DataFactory/1.ArchitectureDossier/artifacts/02.COTS list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWilbert/byd-all-documentation/01.byd-DataFactory/1.ArchitectureDossier/artifacts/02.cots-list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918D46CB-7B7A-BF40-9627-26D23DAF1EA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DD5D2E2-C2ED-E84A-9326-6942F1E3477B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01 - COTS List" sheetId="5" r:id="rId1"/>
@@ -199,20 +199,20 @@
     <t>Node.js is a JavaScript runtime built on Chrome's V8 JavaScript engine.</t>
   </si>
   <si>
-    <t>Commentaire (not exported as Markdown)</t>
-  </si>
-  <si>
     <t>10.X.Y</t>
   </si>
   <si>
     <t>The following lines can be copied and pasted into the markdown</t>
+  </si>
+  <si>
+    <t>Commentaire (non exporté en Markdown)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,46 +230,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -373,11 +338,20 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="IBM Plex Sans"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="IBM Plex Sans"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="IBM Plex Sans"/>
     </font>
   </fonts>
   <fills count="6">
@@ -465,140 +439,125 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="48" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,969 +955,969 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="45.83203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="29" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="17"/>
+    <col min="1" max="1" width="12.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="29" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="str">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="str">
         <f>"COTS List - ("&amp;COUNTA(B5:B104)&amp;" Registered)"</f>
         <v>COTS List - (1 Registered)</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
+      <c r="A81" s="2"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
+      <c r="A97" s="2"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
+      <c r="A102" s="2"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1975,744 +1934,744 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="94.1640625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="2.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="118" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="25" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="28" t="s">
-        <v>12</v>
+    <row r="2" spans="1:2" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="10" t="str">
         <f>"|**"&amp;'01 - COTS List'!B4&amp;"**|"&amp;'01 - COTS List'!C4&amp;"|"&amp;'01 - COTS List'!D4&amp;"|"&amp;'01 - COTS List'!E4&amp;"|"&amp;'01 - COTS List'!F4&amp;"|"</f>
         <v>|**Nom**|Version|URL|Licence|Description|</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="10" t="str">
         <f>"|---|:---:|---|:---:|---|"</f>
         <v>|---|:---:|---|:---:|---|</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="10" t="str">
         <f>IF('01 - COTS List'!B5="","","|**"&amp;'01 - COTS List'!B5&amp;"**|"&amp;'01 - COTS List'!C5&amp;"|"&amp;'01 - COTS List'!D5&amp;"|"&amp;'01 - COTS List'!E5&amp;"|"&amp;'01 - COTS List'!F5&amp;"|")</f>
         <v>|**Node**|10.X.Y|https://nodejs.org/en/|MIT|Node.js is a JavaScript runtime built on Chrome's V8 JavaScript engine.|</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="10" t="str">
         <f>IF('01 - COTS List'!B6="","","|**"&amp;'01 - COTS List'!B6&amp;"**|"&amp;'01 - COTS List'!C6&amp;"|"&amp;'01 - COTS List'!D6&amp;"|"&amp;'01 - COTS List'!E6&amp;"|"&amp;'01 - COTS List'!F6&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="10" t="str">
         <f>IF('01 - COTS List'!B7="","","|**"&amp;'01 - COTS List'!B7&amp;"**|"&amp;'01 - COTS List'!C7&amp;"|"&amp;'01 - COTS List'!D7&amp;"|"&amp;'01 - COTS List'!E7&amp;"|"&amp;'01 - COTS List'!F7&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="10" t="str">
         <f>IF('01 - COTS List'!B8="","","|**"&amp;'01 - COTS List'!B8&amp;"**|"&amp;'01 - COTS List'!C8&amp;"|"&amp;'01 - COTS List'!D8&amp;"|"&amp;'01 - COTS List'!E8&amp;"|"&amp;'01 - COTS List'!F8&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="10" t="str">
         <f>IF('01 - COTS List'!B9="","","|**"&amp;'01 - COTS List'!B9&amp;"**|"&amp;'01 - COTS List'!C9&amp;"|"&amp;'01 - COTS List'!D9&amp;"|"&amp;'01 - COTS List'!E9&amp;"|"&amp;'01 - COTS List'!F9&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="10" t="str">
         <f>IF('01 - COTS List'!B10="","","|**"&amp;'01 - COTS List'!B10&amp;"**|"&amp;'01 - COTS List'!C10&amp;"|"&amp;'01 - COTS List'!D10&amp;"|"&amp;'01 - COTS List'!E10&amp;"|"&amp;'01 - COTS List'!F10&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="str">
+      <c r="B11" s="10" t="str">
         <f>IF('01 - COTS List'!B11="","","|**"&amp;'01 - COTS List'!B11&amp;"**|"&amp;'01 - COTS List'!C11&amp;"|"&amp;'01 - COTS List'!D11&amp;"|"&amp;'01 - COTS List'!E11&amp;"|"&amp;'01 - COTS List'!F11&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="10" t="str">
         <f>IF('01 - COTS List'!B12="","","|**"&amp;'01 - COTS List'!B12&amp;"**|"&amp;'01 - COTS List'!C12&amp;"|"&amp;'01 - COTS List'!D12&amp;"|"&amp;'01 - COTS List'!E12&amp;"|"&amp;'01 - COTS List'!F12&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="10" t="str">
         <f>IF('01 - COTS List'!B13="","","|**"&amp;'01 - COTS List'!B13&amp;"**|"&amp;'01 - COTS List'!C13&amp;"|"&amp;'01 - COTS List'!D13&amp;"|"&amp;'01 - COTS List'!E13&amp;"|"&amp;'01 - COTS List'!F13&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="10" t="str">
         <f>IF('01 - COTS List'!B14="","","|**"&amp;'01 - COTS List'!B14&amp;"**|"&amp;'01 - COTS List'!C14&amp;"|"&amp;'01 - COTS List'!D14&amp;"|"&amp;'01 - COTS List'!E14&amp;"|"&amp;'01 - COTS List'!F14&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="10" t="str">
         <f>IF('01 - COTS List'!B15="","","|**"&amp;'01 - COTS List'!B15&amp;"**|"&amp;'01 - COTS List'!C15&amp;"|"&amp;'01 - COTS List'!D15&amp;"|"&amp;'01 - COTS List'!E15&amp;"|"&amp;'01 - COTS List'!F15&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="str">
+      <c r="B16" s="10" t="str">
         <f>IF('01 - COTS List'!B16="","","|**"&amp;'01 - COTS List'!B16&amp;"**|"&amp;'01 - COTS List'!C16&amp;"|"&amp;'01 - COTS List'!D16&amp;"|"&amp;'01 - COTS List'!E16&amp;"|"&amp;'01 - COTS List'!F16&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="10" t="str">
         <f>IF('01 - COTS List'!B17="","","|**"&amp;'01 - COTS List'!B17&amp;"**|"&amp;'01 - COTS List'!C17&amp;"|"&amp;'01 - COTS List'!D17&amp;"|"&amp;'01 - COTS List'!E17&amp;"|"&amp;'01 - COTS List'!F17&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="str">
+      <c r="B18" s="10" t="str">
         <f>IF('01 - COTS List'!B18="","","|**"&amp;'01 - COTS List'!B18&amp;"**|"&amp;'01 - COTS List'!C18&amp;"|"&amp;'01 - COTS List'!D18&amp;"|"&amp;'01 - COTS List'!E18&amp;"|"&amp;'01 - COTS List'!F18&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="10" t="str">
         <f>IF('01 - COTS List'!B19="","","|**"&amp;'01 - COTS List'!B19&amp;"**|"&amp;'01 - COTS List'!C19&amp;"|"&amp;'01 - COTS List'!D19&amp;"|"&amp;'01 - COTS List'!E19&amp;"|"&amp;'01 - COTS List'!F19&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="10" t="str">
         <f>IF('01 - COTS List'!B20="","","|**"&amp;'01 - COTS List'!B20&amp;"**|"&amp;'01 - COTS List'!C20&amp;"|"&amp;'01 - COTS List'!D20&amp;"|"&amp;'01 - COTS List'!E20&amp;"|"&amp;'01 - COTS List'!F20&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="10" t="str">
         <f>IF('01 - COTS List'!B21="","","|**"&amp;'01 - COTS List'!B21&amp;"**|"&amp;'01 - COTS List'!C21&amp;"|"&amp;'01 - COTS List'!D21&amp;"|"&amp;'01 - COTS List'!E21&amp;"|"&amp;'01 - COTS List'!F21&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="str">
+      <c r="B22" s="10" t="str">
         <f>IF('01 - COTS List'!B22="","","|**"&amp;'01 - COTS List'!B22&amp;"**|"&amp;'01 - COTS List'!C22&amp;"|"&amp;'01 - COTS List'!D22&amp;"|"&amp;'01 - COTS List'!E22&amp;"|"&amp;'01 - COTS List'!F22&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="10" t="str">
         <f>IF('01 - COTS List'!B23="","","|**"&amp;'01 - COTS List'!B23&amp;"**|"&amp;'01 - COTS List'!C23&amp;"|"&amp;'01 - COTS List'!D23&amp;"|"&amp;'01 - COTS List'!E23&amp;"|"&amp;'01 - COTS List'!F23&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="10" t="str">
         <f>IF('01 - COTS List'!B24="","","|**"&amp;'01 - COTS List'!B24&amp;"**|"&amp;'01 - COTS List'!C24&amp;"|"&amp;'01 - COTS List'!D24&amp;"|"&amp;'01 - COTS List'!E24&amp;"|"&amp;'01 - COTS List'!F24&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="str">
+      <c r="B25" s="10" t="str">
         <f>IF('01 - COTS List'!B25="","","|**"&amp;'01 - COTS List'!B25&amp;"**|"&amp;'01 - COTS List'!C25&amp;"|"&amp;'01 - COTS List'!D25&amp;"|"&amp;'01 - COTS List'!E25&amp;"|"&amp;'01 - COTS List'!F25&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="10" t="str">
         <f>IF('01 - COTS List'!B26="","","|**"&amp;'01 - COTS List'!B26&amp;"**|"&amp;'01 - COTS List'!C26&amp;"|"&amp;'01 - COTS List'!D26&amp;"|"&amp;'01 - COTS List'!E26&amp;"|"&amp;'01 - COTS List'!F26&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="str">
+      <c r="B27" s="10" t="str">
         <f>IF('01 - COTS List'!B27="","","|**"&amp;'01 - COTS List'!B27&amp;"**|"&amp;'01 - COTS List'!C27&amp;"|"&amp;'01 - COTS List'!D27&amp;"|"&amp;'01 - COTS List'!E27&amp;"|"&amp;'01 - COTS List'!F27&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="7" t="str">
+      <c r="B28" s="10" t="str">
         <f>IF('01 - COTS List'!B28="","","|**"&amp;'01 - COTS List'!B28&amp;"**|"&amp;'01 - COTS List'!C28&amp;"|"&amp;'01 - COTS List'!D28&amp;"|"&amp;'01 - COTS List'!E28&amp;"|"&amp;'01 - COTS List'!F28&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="str">
+      <c r="B29" s="10" t="str">
         <f>IF('01 - COTS List'!B29="","","|**"&amp;'01 - COTS List'!B29&amp;"**|"&amp;'01 - COTS List'!C29&amp;"|"&amp;'01 - COTS List'!D29&amp;"|"&amp;'01 - COTS List'!E29&amp;"|"&amp;'01 - COTS List'!F29&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="str">
+      <c r="B30" s="10" t="str">
         <f>IF('01 - COTS List'!B30="","","|**"&amp;'01 - COTS List'!B30&amp;"**|"&amp;'01 - COTS List'!C30&amp;"|"&amp;'01 - COTS List'!D30&amp;"|"&amp;'01 - COTS List'!E30&amp;"|"&amp;'01 - COTS List'!F30&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="7" t="str">
+      <c r="B31" s="10" t="str">
         <f>IF('01 - COTS List'!B31="","","|**"&amp;'01 - COTS List'!B31&amp;"**|"&amp;'01 - COTS List'!C31&amp;"|"&amp;'01 - COTS List'!D31&amp;"|"&amp;'01 - COTS List'!E31&amp;"|"&amp;'01 - COTS List'!F31&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="7" t="str">
+      <c r="B32" s="10" t="str">
         <f>IF('01 - COTS List'!B32="","","|**"&amp;'01 - COTS List'!B32&amp;"**|"&amp;'01 - COTS List'!C32&amp;"|"&amp;'01 - COTS List'!D32&amp;"|"&amp;'01 - COTS List'!E32&amp;"|"&amp;'01 - COTS List'!F32&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="7" t="str">
+      <c r="B33" s="10" t="str">
         <f>IF('01 - COTS List'!B33="","","|**"&amp;'01 - COTS List'!B33&amp;"**|"&amp;'01 - COTS List'!C33&amp;"|"&amp;'01 - COTS List'!D33&amp;"|"&amp;'01 - COTS List'!E33&amp;"|"&amp;'01 - COTS List'!F33&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="7" t="str">
+      <c r="B34" s="10" t="str">
         <f>IF('01 - COTS List'!B34="","","|**"&amp;'01 - COTS List'!B34&amp;"**|"&amp;'01 - COTS List'!C34&amp;"|"&amp;'01 - COTS List'!D34&amp;"|"&amp;'01 - COTS List'!E34&amp;"|"&amp;'01 - COTS List'!F34&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="7" t="str">
+      <c r="B35" s="10" t="str">
         <f>IF('01 - COTS List'!B35="","","|**"&amp;'01 - COTS List'!B35&amp;"**|"&amp;'01 - COTS List'!C35&amp;"|"&amp;'01 - COTS List'!D35&amp;"|"&amp;'01 - COTS List'!E35&amp;"|"&amp;'01 - COTS List'!F35&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="7" t="str">
+      <c r="B36" s="10" t="str">
         <f>IF('01 - COTS List'!B36="","","|**"&amp;'01 - COTS List'!B36&amp;"**|"&amp;'01 - COTS List'!C36&amp;"|"&amp;'01 - COTS List'!D36&amp;"|"&amp;'01 - COTS List'!E36&amp;"|"&amp;'01 - COTS List'!F36&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="7" t="str">
+      <c r="B37" s="10" t="str">
         <f>IF('01 - COTS List'!B37="","","|**"&amp;'01 - COTS List'!B37&amp;"**|"&amp;'01 - COTS List'!C37&amp;"|"&amp;'01 - COTS List'!D37&amp;"|"&amp;'01 - COTS List'!E37&amp;"|"&amp;'01 - COTS List'!F37&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="7" t="str">
+      <c r="B38" s="10" t="str">
         <f>IF('01 - COTS List'!B38="","","|**"&amp;'01 - COTS List'!B38&amp;"**|"&amp;'01 - COTS List'!C38&amp;"|"&amp;'01 - COTS List'!D38&amp;"|"&amp;'01 - COTS List'!E38&amp;"|"&amp;'01 - COTS List'!F38&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="7" t="str">
+      <c r="B39" s="10" t="str">
         <f>IF('01 - COTS List'!B39="","","|**"&amp;'01 - COTS List'!B39&amp;"**|"&amp;'01 - COTS List'!C39&amp;"|"&amp;'01 - COTS List'!D39&amp;"|"&amp;'01 - COTS List'!E39&amp;"|"&amp;'01 - COTS List'!F39&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="str">
+      <c r="B40" s="10" t="str">
         <f>IF('01 - COTS List'!B40="","","|**"&amp;'01 - COTS List'!B40&amp;"**|"&amp;'01 - COTS List'!C40&amp;"|"&amp;'01 - COTS List'!D40&amp;"|"&amp;'01 - COTS List'!E40&amp;"|"&amp;'01 - COTS List'!F40&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="7" t="str">
+      <c r="B41" s="10" t="str">
         <f>IF('01 - COTS List'!B41="","","|**"&amp;'01 - COTS List'!B41&amp;"**|"&amp;'01 - COTS List'!C41&amp;"|"&amp;'01 - COTS List'!D41&amp;"|"&amp;'01 - COTS List'!E41&amp;"|"&amp;'01 - COTS List'!F41&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="10" t="str">
         <f>IF('01 - COTS List'!B42="","","|**"&amp;'01 - COTS List'!B42&amp;"**|"&amp;'01 - COTS List'!C42&amp;"|"&amp;'01 - COTS List'!D42&amp;"|"&amp;'01 - COTS List'!E42&amp;"|"&amp;'01 - COTS List'!F42&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="7" t="str">
+      <c r="B43" s="10" t="str">
         <f>IF('01 - COTS List'!B43="","","|**"&amp;'01 - COTS List'!B43&amp;"**|"&amp;'01 - COTS List'!C43&amp;"|"&amp;'01 - COTS List'!D43&amp;"|"&amp;'01 - COTS List'!E43&amp;"|"&amp;'01 - COTS List'!F43&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="7" t="str">
+      <c r="B44" s="10" t="str">
         <f>IF('01 - COTS List'!B44="","","|**"&amp;'01 - COTS List'!B44&amp;"**|"&amp;'01 - COTS List'!C44&amp;"|"&amp;'01 - COTS List'!D44&amp;"|"&amp;'01 - COTS List'!E44&amp;"|"&amp;'01 - COTS List'!F44&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="str">
+      <c r="B45" s="10" t="str">
         <f>IF('01 - COTS List'!B45="","","|**"&amp;'01 - COTS List'!B45&amp;"**|"&amp;'01 - COTS List'!C45&amp;"|"&amp;'01 - COTS List'!D45&amp;"|"&amp;'01 - COTS List'!E45&amp;"|"&amp;'01 - COTS List'!F45&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="str">
+      <c r="B46" s="10" t="str">
         <f>IF('01 - COTS List'!B46="","","|**"&amp;'01 - COTS List'!B46&amp;"**|"&amp;'01 - COTS List'!C46&amp;"|"&amp;'01 - COTS List'!D46&amp;"|"&amp;'01 - COTS List'!E46&amp;"|"&amp;'01 - COTS List'!F46&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="7" t="str">
+      <c r="B47" s="10" t="str">
         <f>IF('01 - COTS List'!B47="","","|**"&amp;'01 - COTS List'!B47&amp;"**|"&amp;'01 - COTS List'!C47&amp;"|"&amp;'01 - COTS List'!D47&amp;"|"&amp;'01 - COTS List'!E47&amp;"|"&amp;'01 - COTS List'!F47&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="str">
+      <c r="B48" s="10" t="str">
         <f>IF('01 - COTS List'!B48="","","|**"&amp;'01 - COTS List'!B48&amp;"**|"&amp;'01 - COTS List'!C48&amp;"|"&amp;'01 - COTS List'!D48&amp;"|"&amp;'01 - COTS List'!E48&amp;"|"&amp;'01 - COTS List'!F48&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="7" t="str">
+      <c r="B49" s="10" t="str">
         <f>IF('01 - COTS List'!B49="","","|**"&amp;'01 - COTS List'!B49&amp;"**|"&amp;'01 - COTS List'!C49&amp;"|"&amp;'01 - COTS List'!D49&amp;"|"&amp;'01 - COTS List'!E49&amp;"|"&amp;'01 - COTS List'!F49&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="7" t="str">
+      <c r="B50" s="10" t="str">
         <f>IF('01 - COTS List'!B50="","","|**"&amp;'01 - COTS List'!B50&amp;"**|"&amp;'01 - COTS List'!C50&amp;"|"&amp;'01 - COTS List'!D50&amp;"|"&amp;'01 - COTS List'!E50&amp;"|"&amp;'01 - COTS List'!F50&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="7" t="str">
+      <c r="B51" s="10" t="str">
         <f>IF('01 - COTS List'!B51="","","|**"&amp;'01 - COTS List'!B51&amp;"**|"&amp;'01 - COTS List'!C51&amp;"|"&amp;'01 - COTS List'!D51&amp;"|"&amp;'01 - COTS List'!E51&amp;"|"&amp;'01 - COTS List'!F51&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="7" t="str">
+      <c r="B52" s="10" t="str">
         <f>IF('01 - COTS List'!B52="","","|**"&amp;'01 - COTS List'!B52&amp;"**|"&amp;'01 - COTS List'!C52&amp;"|"&amp;'01 - COTS List'!D52&amp;"|"&amp;'01 - COTS List'!E52&amp;"|"&amp;'01 - COTS List'!F52&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="7" t="str">
+      <c r="B53" s="10" t="str">
         <f>IF('01 - COTS List'!B53="","","|**"&amp;'01 - COTS List'!B53&amp;"**|"&amp;'01 - COTS List'!C53&amp;"|"&amp;'01 - COTS List'!D53&amp;"|"&amp;'01 - COTS List'!E53&amp;"|"&amp;'01 - COTS List'!F53&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="7" t="str">
+      <c r="B54" s="10" t="str">
         <f>IF('01 - COTS List'!B54="","","|**"&amp;'01 - COTS List'!B54&amp;"**|"&amp;'01 - COTS List'!C54&amp;"|"&amp;'01 - COTS List'!D54&amp;"|"&amp;'01 - COTS List'!E54&amp;"|"&amp;'01 - COTS List'!F54&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="7" t="str">
+      <c r="B55" s="10" t="str">
         <f>IF('01 - COTS List'!B55="","","|**"&amp;'01 - COTS List'!B55&amp;"**|"&amp;'01 - COTS List'!C55&amp;"|"&amp;'01 - COTS List'!D55&amp;"|"&amp;'01 - COTS List'!E55&amp;"|"&amp;'01 - COTS List'!F55&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="7" t="str">
+      <c r="B56" s="10" t="str">
         <f>IF('01 - COTS List'!B56="","","|**"&amp;'01 - COTS List'!B56&amp;"**|"&amp;'01 - COTS List'!C56&amp;"|"&amp;'01 - COTS List'!D56&amp;"|"&amp;'01 - COTS List'!E56&amp;"|"&amp;'01 - COTS List'!F56&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="7" t="str">
+      <c r="B57" s="10" t="str">
         <f>IF('01 - COTS List'!B57="","","|**"&amp;'01 - COTS List'!B57&amp;"**|"&amp;'01 - COTS List'!C57&amp;"|"&amp;'01 - COTS List'!D57&amp;"|"&amp;'01 - COTS List'!E57&amp;"|"&amp;'01 - COTS List'!F57&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="7" t="str">
+      <c r="B58" s="10" t="str">
         <f>IF('01 - COTS List'!B58="","","|**"&amp;'01 - COTS List'!B58&amp;"**|"&amp;'01 - COTS List'!C58&amp;"|"&amp;'01 - COTS List'!D58&amp;"|"&amp;'01 - COTS List'!E58&amp;"|"&amp;'01 - COTS List'!F58&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="7" t="str">
+      <c r="B59" s="10" t="str">
         <f>IF('01 - COTS List'!B59="","","|**"&amp;'01 - COTS List'!B59&amp;"**|"&amp;'01 - COTS List'!C59&amp;"|"&amp;'01 - COTS List'!D59&amp;"|"&amp;'01 - COTS List'!E59&amp;"|"&amp;'01 - COTS List'!F59&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="7" t="str">
+      <c r="B60" s="10" t="str">
         <f>IF('01 - COTS List'!B60="","","|**"&amp;'01 - COTS List'!B60&amp;"**|"&amp;'01 - COTS List'!C60&amp;"|"&amp;'01 - COTS List'!D60&amp;"|"&amp;'01 - COTS List'!E60&amp;"|"&amp;'01 - COTS List'!F60&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="7" t="str">
+      <c r="B61" s="10" t="str">
         <f>IF('01 - COTS List'!B61="","","|**"&amp;'01 - COTS List'!B61&amp;"**|"&amp;'01 - COTS List'!C61&amp;"|"&amp;'01 - COTS List'!D61&amp;"|"&amp;'01 - COTS List'!E61&amp;"|"&amp;'01 - COTS List'!F61&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="7" t="str">
+      <c r="B62" s="10" t="str">
         <f>IF('01 - COTS List'!B62="","","|**"&amp;'01 - COTS List'!B62&amp;"**|"&amp;'01 - COTS List'!C62&amp;"|"&amp;'01 - COTS List'!D62&amp;"|"&amp;'01 - COTS List'!E62&amp;"|"&amp;'01 - COTS List'!F62&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="7" t="str">
+      <c r="B63" s="10" t="str">
         <f>IF('01 - COTS List'!B63="","","|**"&amp;'01 - COTS List'!B63&amp;"**|"&amp;'01 - COTS List'!C63&amp;"|"&amp;'01 - COTS List'!D63&amp;"|"&amp;'01 - COTS List'!E63&amp;"|"&amp;'01 - COTS List'!F63&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="7" t="str">
+      <c r="B64" s="10" t="str">
         <f>IF('01 - COTS List'!B64="","","|**"&amp;'01 - COTS List'!B64&amp;"**|"&amp;'01 - COTS List'!C64&amp;"|"&amp;'01 - COTS List'!D64&amp;"|"&amp;'01 - COTS List'!E64&amp;"|"&amp;'01 - COTS List'!F64&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="7" t="str">
+      <c r="B65" s="10" t="str">
         <f>IF('01 - COTS List'!B65="","","|**"&amp;'01 - COTS List'!B65&amp;"**|"&amp;'01 - COTS List'!C65&amp;"|"&amp;'01 - COTS List'!D65&amp;"|"&amp;'01 - COTS List'!E65&amp;"|"&amp;'01 - COTS List'!F65&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="7" t="str">
+      <c r="B66" s="10" t="str">
         <f>IF('01 - COTS List'!B66="","","|**"&amp;'01 - COTS List'!B66&amp;"**|"&amp;'01 - COTS List'!C66&amp;"|"&amp;'01 - COTS List'!D66&amp;"|"&amp;'01 - COTS List'!E66&amp;"|"&amp;'01 - COTS List'!F66&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="7" t="str">
+      <c r="B67" s="10" t="str">
         <f>IF('01 - COTS List'!B67="","","|**"&amp;'01 - COTS List'!B67&amp;"**|"&amp;'01 - COTS List'!C67&amp;"|"&amp;'01 - COTS List'!D67&amp;"|"&amp;'01 - COTS List'!E67&amp;"|"&amp;'01 - COTS List'!F67&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="7" t="str">
+      <c r="B68" s="10" t="str">
         <f>IF('01 - COTS List'!B68="","","|**"&amp;'01 - COTS List'!B68&amp;"**|"&amp;'01 - COTS List'!C68&amp;"|"&amp;'01 - COTS List'!D68&amp;"|"&amp;'01 - COTS List'!E68&amp;"|"&amp;'01 - COTS List'!F68&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="7" t="str">
+      <c r="B69" s="10" t="str">
         <f>IF('01 - COTS List'!B69="","","|**"&amp;'01 - COTS List'!B69&amp;"**|"&amp;'01 - COTS List'!C69&amp;"|"&amp;'01 - COTS List'!D69&amp;"|"&amp;'01 - COTS List'!E69&amp;"|"&amp;'01 - COTS List'!F69&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="7" t="str">
+      <c r="B70" s="10" t="str">
         <f>IF('01 - COTS List'!B70="","","|**"&amp;'01 - COTS List'!B70&amp;"**|"&amp;'01 - COTS List'!C70&amp;"|"&amp;'01 - COTS List'!D70&amp;"|"&amp;'01 - COTS List'!E70&amp;"|"&amp;'01 - COTS List'!F70&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="7" t="str">
+      <c r="B71" s="10" t="str">
         <f>IF('01 - COTS List'!B71="","","|**"&amp;'01 - COTS List'!B71&amp;"**|"&amp;'01 - COTS List'!C71&amp;"|"&amp;'01 - COTS List'!D71&amp;"|"&amp;'01 - COTS List'!E71&amp;"|"&amp;'01 - COTS List'!F71&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="7" t="str">
+      <c r="B72" s="10" t="str">
         <f>IF('01 - COTS List'!B72="","","|**"&amp;'01 - COTS List'!B72&amp;"**|"&amp;'01 - COTS List'!C72&amp;"|"&amp;'01 - COTS List'!D72&amp;"|"&amp;'01 - COTS List'!E72&amp;"|"&amp;'01 - COTS List'!F72&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="7" t="str">
+      <c r="B73" s="10" t="str">
         <f>IF('01 - COTS List'!B73="","","|**"&amp;'01 - COTS List'!B73&amp;"**|"&amp;'01 - COTS List'!C73&amp;"|"&amp;'01 - COTS List'!D73&amp;"|"&amp;'01 - COTS List'!E73&amp;"|"&amp;'01 - COTS List'!F73&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="7" t="str">
+      <c r="B74" s="10" t="str">
         <f>IF('01 - COTS List'!B74="","","|**"&amp;'01 - COTS List'!B74&amp;"**|"&amp;'01 - COTS List'!C74&amp;"|"&amp;'01 - COTS List'!D74&amp;"|"&amp;'01 - COTS List'!E74&amp;"|"&amp;'01 - COTS List'!F74&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="7" t="str">
+      <c r="B75" s="10" t="str">
         <f>IF('01 - COTS List'!B75="","","|**"&amp;'01 - COTS List'!B75&amp;"**|"&amp;'01 - COTS List'!C75&amp;"|"&amp;'01 - COTS List'!D75&amp;"|"&amp;'01 - COTS List'!E75&amp;"|"&amp;'01 - COTS List'!F75&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="7" t="str">
+      <c r="B76" s="10" t="str">
         <f>IF('01 - COTS List'!B76="","","|**"&amp;'01 - COTS List'!B76&amp;"**|"&amp;'01 - COTS List'!C76&amp;"|"&amp;'01 - COTS List'!D76&amp;"|"&amp;'01 - COTS List'!E76&amp;"|"&amp;'01 - COTS List'!F76&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="7" t="str">
+      <c r="B77" s="10" t="str">
         <f>IF('01 - COTS List'!B77="","","|**"&amp;'01 - COTS List'!B77&amp;"**|"&amp;'01 - COTS List'!C77&amp;"|"&amp;'01 - COTS List'!D77&amp;"|"&amp;'01 - COTS List'!E77&amp;"|"&amp;'01 - COTS List'!F77&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="7" t="str">
+      <c r="B78" s="10" t="str">
         <f>IF('01 - COTS List'!B78="","","|**"&amp;'01 - COTS List'!B78&amp;"**|"&amp;'01 - COTS List'!C78&amp;"|"&amp;'01 - COTS List'!D78&amp;"|"&amp;'01 - COTS List'!E78&amp;"|"&amp;'01 - COTS List'!F78&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="7" t="str">
+      <c r="B79" s="10" t="str">
         <f>IF('01 - COTS List'!B79="","","|**"&amp;'01 - COTS List'!B79&amp;"**|"&amp;'01 - COTS List'!C79&amp;"|"&amp;'01 - COTS List'!D79&amp;"|"&amp;'01 - COTS List'!E79&amp;"|"&amp;'01 - COTS List'!F79&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="7" t="str">
+      <c r="B80" s="10" t="str">
         <f>IF('01 - COTS List'!B80="","","|**"&amp;'01 - COTS List'!B80&amp;"**|"&amp;'01 - COTS List'!C80&amp;"|"&amp;'01 - COTS List'!D80&amp;"|"&amp;'01 - COTS List'!E80&amp;"|"&amp;'01 - COTS List'!F80&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="7" t="str">
+      <c r="B81" s="10" t="str">
         <f>IF('01 - COTS List'!B81="","","|**"&amp;'01 - COTS List'!B81&amp;"**|"&amp;'01 - COTS List'!C81&amp;"|"&amp;'01 - COTS List'!D81&amp;"|"&amp;'01 - COTS List'!E81&amp;"|"&amp;'01 - COTS List'!F81&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="7" t="str">
+      <c r="B82" s="10" t="str">
         <f>IF('01 - COTS List'!B82="","","|**"&amp;'01 - COTS List'!B82&amp;"**|"&amp;'01 - COTS List'!C82&amp;"|"&amp;'01 - COTS List'!D82&amp;"|"&amp;'01 - COTS List'!E82&amp;"|"&amp;'01 - COTS List'!F82&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="7" t="str">
+      <c r="B83" s="10" t="str">
         <f>IF('01 - COTS List'!B83="","","|**"&amp;'01 - COTS List'!B83&amp;"**|"&amp;'01 - COTS List'!C83&amp;"|"&amp;'01 - COTS List'!D83&amp;"|"&amp;'01 - COTS List'!E83&amp;"|"&amp;'01 - COTS List'!F83&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="7" t="str">
+      <c r="B84" s="10" t="str">
         <f>IF('01 - COTS List'!B84="","","|**"&amp;'01 - COTS List'!B84&amp;"**|"&amp;'01 - COTS List'!C84&amp;"|"&amp;'01 - COTS List'!D84&amp;"|"&amp;'01 - COTS List'!E84&amp;"|"&amp;'01 - COTS List'!F84&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="7" t="str">
+      <c r="B85" s="10" t="str">
         <f>IF('01 - COTS List'!B85="","","|**"&amp;'01 - COTS List'!B85&amp;"**|"&amp;'01 - COTS List'!C85&amp;"|"&amp;'01 - COTS List'!D85&amp;"|"&amp;'01 - COTS List'!E85&amp;"|"&amp;'01 - COTS List'!F85&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="7" t="str">
+      <c r="B86" s="10" t="str">
         <f>IF('01 - COTS List'!B86="","","|**"&amp;'01 - COTS List'!B86&amp;"**|"&amp;'01 - COTS List'!C86&amp;"|"&amp;'01 - COTS List'!D86&amp;"|"&amp;'01 - COTS List'!E86&amp;"|"&amp;'01 - COTS List'!F86&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="7" t="str">
+      <c r="B87" s="10" t="str">
         <f>IF('01 - COTS List'!B87="","","|**"&amp;'01 - COTS List'!B87&amp;"**|"&amp;'01 - COTS List'!C87&amp;"|"&amp;'01 - COTS List'!D87&amp;"|"&amp;'01 - COTS List'!E87&amp;"|"&amp;'01 - COTS List'!F87&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="7" t="str">
+      <c r="B88" s="10" t="str">
         <f>IF('01 - COTS List'!B88="","","|**"&amp;'01 - COTS List'!B88&amp;"**|"&amp;'01 - COTS List'!C88&amp;"|"&amp;'01 - COTS List'!D88&amp;"|"&amp;'01 - COTS List'!E88&amp;"|"&amp;'01 - COTS List'!F88&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="7" t="str">
+      <c r="B89" s="10" t="str">
         <f>IF('01 - COTS List'!B89="","","|**"&amp;'01 - COTS List'!B89&amp;"**|"&amp;'01 - COTS List'!C89&amp;"|"&amp;'01 - COTS List'!D89&amp;"|"&amp;'01 - COTS List'!E89&amp;"|"&amp;'01 - COTS List'!F89&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="7" t="str">
+      <c r="B90" s="10" t="str">
         <f>IF('01 - COTS List'!B90="","","|**"&amp;'01 - COTS List'!B90&amp;"**|"&amp;'01 - COTS List'!C90&amp;"|"&amp;'01 - COTS List'!D90&amp;"|"&amp;'01 - COTS List'!E90&amp;"|"&amp;'01 - COTS List'!F90&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="7" t="str">
+      <c r="B91" s="10" t="str">
         <f>IF('01 - COTS List'!B91="","","|**"&amp;'01 - COTS List'!B91&amp;"**|"&amp;'01 - COTS List'!C91&amp;"|"&amp;'01 - COTS List'!D91&amp;"|"&amp;'01 - COTS List'!E91&amp;"|"&amp;'01 - COTS List'!F91&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="7" t="str">
+      <c r="B92" s="10" t="str">
         <f>IF('01 - COTS List'!B92="","","|**"&amp;'01 - COTS List'!B92&amp;"**|"&amp;'01 - COTS List'!C92&amp;"|"&amp;'01 - COTS List'!D92&amp;"|"&amp;'01 - COTS List'!E92&amp;"|"&amp;'01 - COTS List'!F92&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="7" t="str">
+      <c r="B93" s="10" t="str">
         <f>IF('01 - COTS List'!B93="","","|**"&amp;'01 - COTS List'!B93&amp;"**|"&amp;'01 - COTS List'!C93&amp;"|"&amp;'01 - COTS List'!D93&amp;"|"&amp;'01 - COTS List'!E93&amp;"|"&amp;'01 - COTS List'!F93&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="7" t="str">
+      <c r="B94" s="10" t="str">
         <f>IF('01 - COTS List'!B94="","","|**"&amp;'01 - COTS List'!B94&amp;"**|"&amp;'01 - COTS List'!C94&amp;"|"&amp;'01 - COTS List'!D94&amp;"|"&amp;'01 - COTS List'!E94&amp;"|"&amp;'01 - COTS List'!F94&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="7" t="str">
+      <c r="B95" s="10" t="str">
         <f>IF('01 - COTS List'!B95="","","|**"&amp;'01 - COTS List'!B95&amp;"**|"&amp;'01 - COTS List'!C95&amp;"|"&amp;'01 - COTS List'!D95&amp;"|"&amp;'01 - COTS List'!E95&amp;"|"&amp;'01 - COTS List'!F95&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="7" t="str">
+      <c r="B96" s="10" t="str">
         <f>IF('01 - COTS List'!B96="","","|**"&amp;'01 - COTS List'!B96&amp;"**|"&amp;'01 - COTS List'!C96&amp;"|"&amp;'01 - COTS List'!D96&amp;"|"&amp;'01 - COTS List'!E96&amp;"|"&amp;'01 - COTS List'!F96&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="7" t="str">
+      <c r="B97" s="10" t="str">
         <f>IF('01 - COTS List'!B97="","","|**"&amp;'01 - COTS List'!B97&amp;"**|"&amp;'01 - COTS List'!C97&amp;"|"&amp;'01 - COTS List'!D97&amp;"|"&amp;'01 - COTS List'!E97&amp;"|"&amp;'01 - COTS List'!F97&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="7" t="str">
+      <c r="B98" s="10" t="str">
         <f>IF('01 - COTS List'!B98="","","|**"&amp;'01 - COTS List'!B98&amp;"**|"&amp;'01 - COTS List'!C98&amp;"|"&amp;'01 - COTS List'!D98&amp;"|"&amp;'01 - COTS List'!E98&amp;"|"&amp;'01 - COTS List'!F98&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="7" t="str">
+      <c r="B99" s="10" t="str">
         <f>IF('01 - COTS List'!B99="","","|**"&amp;'01 - COTS List'!B99&amp;"**|"&amp;'01 - COTS List'!C99&amp;"|"&amp;'01 - COTS List'!D99&amp;"|"&amp;'01 - COTS List'!E99&amp;"|"&amp;'01 - COTS List'!F99&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="7" t="str">
+      <c r="B100" s="10" t="str">
         <f>IF('01 - COTS List'!B100="","","|**"&amp;'01 - COTS List'!B100&amp;"**|"&amp;'01 - COTS List'!C100&amp;"|"&amp;'01 - COTS List'!D100&amp;"|"&amp;'01 - COTS List'!E100&amp;"|"&amp;'01 - COTS List'!F100&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="7" t="str">
+      <c r="B101" s="10" t="str">
         <f>IF('01 - COTS List'!B101="","","|**"&amp;'01 - COTS List'!B101&amp;"**|"&amp;'01 - COTS List'!C101&amp;"|"&amp;'01 - COTS List'!D101&amp;"|"&amp;'01 - COTS List'!E101&amp;"|"&amp;'01 - COTS List'!F101&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="7" t="str">
+      <c r="B102" s="10" t="str">
         <f>IF('01 - COTS List'!B102="","","|**"&amp;'01 - COTS List'!B102&amp;"**|"&amp;'01 - COTS List'!C102&amp;"|"&amp;'01 - COTS List'!D102&amp;"|"&amp;'01 - COTS List'!E102&amp;"|"&amp;'01 - COTS List'!F102&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="7" t="str">
+      <c r="B103" s="10" t="str">
         <f>IF('01 - COTS List'!B103="","","|**"&amp;'01 - COTS List'!B103&amp;"**|"&amp;'01 - COTS List'!C103&amp;"|"&amp;'01 - COTS List'!D103&amp;"|"&amp;'01 - COTS List'!E103&amp;"|"&amp;'01 - COTS List'!F103&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="7" t="str">
+      <c r="B104" s="10" t="str">
         <f>IF('01 - COTS List'!B104="","","|**"&amp;'01 - COTS List'!B104&amp;"**|"&amp;'01 - COTS List'!C104&amp;"|"&amp;'01 - COTS List'!D104&amp;"|"&amp;'01 - COTS List'!E104&amp;"|"&amp;'01 - COTS List'!F104&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="7" t="str">
+      <c r="B105" s="10" t="str">
         <f>IF('01 - COTS List'!B105="","","|**"&amp;'01 - COTS List'!B105&amp;"**|"&amp;'01 - COTS List'!C105&amp;"|"&amp;'01 - COTS List'!D105&amp;"|"&amp;'01 - COTS List'!E105&amp;"|"&amp;'01 - COTS List'!F105&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="7" t="str">
+      <c r="B106" s="10" t="str">
         <f>IF('01 - COTS List'!B106="","","|**"&amp;'01 - COTS List'!B106&amp;"**|"&amp;'01 - COTS List'!C106&amp;"|"&amp;'01 - COTS List'!D106&amp;"|"&amp;'01 - COTS List'!E106&amp;"|"&amp;'01 - COTS List'!F106&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="7" t="str">
+      <c r="B107" s="10" t="str">
         <f>IF('01 - COTS List'!B107="","","|**"&amp;'01 - COTS List'!B107&amp;"**|"&amp;'01 - COTS List'!C107&amp;"|"&amp;'01 - COTS List'!D107&amp;"|"&amp;'01 - COTS List'!E107&amp;"|"&amp;'01 - COTS List'!F107&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="7" t="str">
+      <c r="B108" s="10" t="str">
         <f>IF('01 - COTS List'!B108="","","|**"&amp;'01 - COTS List'!B108&amp;"**|"&amp;'01 - COTS List'!C108&amp;"|"&amp;'01 - COTS List'!D108&amp;"|"&amp;'01 - COTS List'!E108&amp;"|"&amp;'01 - COTS List'!F108&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="7" t="str">
+      <c r="B109" s="10" t="str">
         <f>IF('01 - COTS List'!B109="","","|**"&amp;'01 - COTS List'!B109&amp;"**|"&amp;'01 - COTS List'!C109&amp;"|"&amp;'01 - COTS List'!D109&amp;"|"&amp;'01 - COTS List'!E109&amp;"|"&amp;'01 - COTS List'!F109&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="7" t="str">
+      <c r="B110" s="10" t="str">
         <f>IF('01 - COTS List'!B110="","","|**"&amp;'01 - COTS List'!B110&amp;"**|"&amp;'01 - COTS List'!C110&amp;"|"&amp;'01 - COTS List'!D110&amp;"|"&amp;'01 - COTS List'!E110&amp;"|"&amp;'01 - COTS List'!F110&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="7" t="str">
+      <c r="B111" s="10" t="str">
         <f>IF('01 - COTS List'!B111="","","|**"&amp;'01 - COTS List'!B111&amp;"**|"&amp;'01 - COTS List'!C111&amp;"|"&amp;'01 - COTS List'!D111&amp;"|"&amp;'01 - COTS List'!E111&amp;"|"&amp;'01 - COTS List'!F111&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="7" t="str">
+      <c r="B112" s="10" t="str">
         <f>IF('01 - COTS List'!B112="","","|**"&amp;'01 - COTS List'!B112&amp;"**|"&amp;'01 - COTS List'!C112&amp;"|"&amp;'01 - COTS List'!D112&amp;"|"&amp;'01 - COTS List'!E112&amp;"|"&amp;'01 - COTS List'!F112&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="7" t="str">
+      <c r="B113" s="10" t="str">
         <f>IF('01 - COTS List'!B113="","","|**"&amp;'01 - COTS List'!B113&amp;"**|"&amp;'01 - COTS List'!C113&amp;"|"&amp;'01 - COTS List'!D113&amp;"|"&amp;'01 - COTS List'!E113&amp;"|"&amp;'01 - COTS List'!F113&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="7" t="str">
+      <c r="B114" s="10" t="str">
         <f>IF('01 - COTS List'!B114="","","|**"&amp;'01 - COTS List'!B114&amp;"**|"&amp;'01 - COTS List'!C114&amp;"|"&amp;'01 - COTS List'!D114&amp;"|"&amp;'01 - COTS List'!E114&amp;"|"&amp;'01 - COTS List'!F114&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="7" t="str">
+      <c r="B115" s="10" t="str">
         <f>IF('01 - COTS List'!B115="","","|**"&amp;'01 - COTS List'!B115&amp;"**|"&amp;'01 - COTS List'!C115&amp;"|"&amp;'01 - COTS List'!D115&amp;"|"&amp;'01 - COTS List'!E115&amp;"|"&amp;'01 - COTS List'!F115&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="7" t="str">
+      <c r="B116" s="10" t="str">
         <f>IF('01 - COTS List'!B116="","","|**"&amp;'01 - COTS List'!B116&amp;"**|"&amp;'01 - COTS List'!C116&amp;"|"&amp;'01 - COTS List'!D116&amp;"|"&amp;'01 - COTS List'!E116&amp;"|"&amp;'01 - COTS List'!F116&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="7" t="str">
+      <c r="B117" s="10" t="str">
         <f>IF('01 - COTS List'!B117="","","|**"&amp;'01 - COTS List'!B117&amp;"**|"&amp;'01 - COTS List'!C117&amp;"|"&amp;'01 - COTS List'!D117&amp;"|"&amp;'01 - COTS List'!E117&amp;"|"&amp;'01 - COTS List'!F117&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="7" t="str">
+      <c r="B118" s="10" t="str">
         <f>IF('01 - COTS List'!B118="","","|**"&amp;'01 - COTS List'!B118&amp;"**|"&amp;'01 - COTS List'!C118&amp;"|"&amp;'01 - COTS List'!D118&amp;"|"&amp;'01 - COTS List'!E118&amp;"|"&amp;'01 - COTS List'!F118&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="7" t="str">
+      <c r="B119" s="10" t="str">
         <f>IF('01 - COTS List'!B119="","","|**"&amp;'01 - COTS List'!B119&amp;"**|"&amp;'01 - COTS List'!C119&amp;"|"&amp;'01 - COTS List'!D119&amp;"|"&amp;'01 - COTS List'!E119&amp;"|"&amp;'01 - COTS List'!F119&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="7" t="str">
+      <c r="B120" s="10" t="str">
         <f>IF('01 - COTS List'!B120="","","|**"&amp;'01 - COTS List'!B120&amp;"**|"&amp;'01 - COTS List'!C120&amp;"|"&amp;'01 - COTS List'!D120&amp;"|"&amp;'01 - COTS List'!E120&amp;"|"&amp;'01 - COTS List'!F120&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="7" t="str">
+      <c r="B121" s="10" t="str">
         <f>IF('01 - COTS List'!B121="","","|**"&amp;'01 - COTS List'!B121&amp;"**|"&amp;'01 - COTS List'!C121&amp;"|"&amp;'01 - COTS List'!D121&amp;"|"&amp;'01 - COTS List'!E121&amp;"|"&amp;'01 - COTS List'!F121&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="7" t="str">
+      <c r="B122" s="10" t="str">
         <f>IF('01 - COTS List'!B122="","","|**"&amp;'01 - COTS List'!B122&amp;"**|"&amp;'01 - COTS List'!C122&amp;"|"&amp;'01 - COTS List'!D122&amp;"|"&amp;'01 - COTS List'!E122&amp;"|"&amp;'01 - COTS List'!F122&amp;"|")</f>
         <v/>
       </c>

--- a/01.byd-DataFactory/1.ArchitectureDossier/artifacts/02.cots-list/BYD-DF_COTSLists_v01.00.xlsx
+++ b/01.byd-DataFactory/1.ArchitectureDossier/artifacts/02.cots-list/BYD-DF_COTSLists_v01.00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWilbert/byd-all-documentation/01.byd-DataFactory/1.ArchitectureDossier/artifacts/02.cots-list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavierwuelche/Documents/Projet/byd-all-documentation/01.byd-DataFactory/1.ArchitectureDossier/artifacts/02.cots-list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DD5D2E2-C2ED-E84A-9326-6942F1E3477B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C58C5A2-B662-0546-BD93-49B3F6E57930}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="-20120" windowWidth="33600" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01 - COTS List" sheetId="5" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 - COTS List'!$B$4:$G$4</definedName>
-    <definedName name="_Toc453749348" localSheetId="0">'01 - COTS List'!$C$14</definedName>
-    <definedName name="_Toc453749349" localSheetId="0">'01 - COTS List'!$E$14</definedName>
+    <definedName name="_Toc453749348" localSheetId="0">'01 - COTS List'!#REF!</definedName>
+    <definedName name="_Toc453749349" localSheetId="0">'01 - COTS List'!#REF!</definedName>
     <definedName name="_Toc453749350" localSheetId="0">'01 - COTS List'!#REF!</definedName>
     <definedName name="AREA">#REF!</definedName>
     <definedName name="CATEGORY">#REF!</definedName>
     <definedName name="CRITICITY">#REF!</definedName>
     <definedName name="PERMISSION">'02 - Markdown Export'!#REF!</definedName>
-    <definedName name="PROFIL">'01 - COTS List'!$B$5:$B$29</definedName>
+    <definedName name="PROFIL">'01 - COTS List'!$B$5:$B$16</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="131">
   <si>
     <t>Description</t>
   </si>
@@ -199,20 +199,374 @@
     <t>Node.js is a JavaScript runtime built on Chrome's V8 JavaScript engine.</t>
   </si>
   <si>
-    <t>10.X.Y</t>
-  </si>
-  <si>
     <t>The following lines can be copied and pasted into the markdown</t>
   </si>
   <si>
     <t>Commentaire (non exporté en Markdown)</t>
+  </si>
+  <si>
+    <t>@angular/animations</t>
+  </si>
+  <si>
+    <t>6.*.*</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@angular/animations</t>
+  </si>
+  <si>
+    <t>Angular Module for animations</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>@angular/cdk</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@angular/cdk</t>
+  </si>
+  <si>
+    <t>Angular Module Material Design</t>
+  </si>
+  <si>
+    <t>@angular/common</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@angular/common</t>
+  </si>
+  <si>
+    <t>Angular Module</t>
+  </si>
+  <si>
+    <t>@angular/compiler</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@angular/compiler</t>
+  </si>
+  <si>
+    <t>@angular/core</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@angular/core</t>
+  </si>
+  <si>
+    <t>Angular is a TypeScript-based open-source front-end web application platform led by the Angular Team at Google and by a community of individuals and corporations</t>
+  </si>
+  <si>
+    <t>@angular/forms</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@angular/forms</t>
+  </si>
+  <si>
+    <t>Angular Module for forms</t>
+  </si>
+  <si>
+    <t>@angular/material</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@angular/material</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@angular/platform-browser</t>
+  </si>
+  <si>
+    <t>@angular/platform-browser-dynamic</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@angular/platform-browser-dynamic</t>
+  </si>
+  <si>
+    <t>@angular/router</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@angular/router</t>
+  </si>
+  <si>
+    <t>Angular Module for Router</t>
+  </si>
+  <si>
+    <t>@ngx-translate/core</t>
+  </si>
+  <si>
+    <t>11.*.*</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@ngx-translate/core</t>
+  </si>
+  <si>
+    <t>The internationalization (i18n) library for Angular</t>
+  </si>
+  <si>
+    <t>@ngx-translate/http-loader</t>
+  </si>
+  <si>
+    <t>3.*.*</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@ngx-translate/http-loader</t>
+  </si>
+  <si>
+    <t>A loader for ngx-translate that loads translations using http.</t>
+  </si>
+  <si>
+    <t>8.*.*</t>
+  </si>
+  <si>
+    <t>4.*.*</t>
+  </si>
+  <si>
+    <t>hammer.js</t>
+  </si>
+  <si>
+    <t>2.*.*</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/hammerjs</t>
+  </si>
+  <si>
+    <t>Hammer is a open-source library that can recognize gestures made by touch, mouse and pointerEvents</t>
+  </si>
+  <si>
+    <t>proj4</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/proj4</t>
+  </si>
+  <si>
+    <t>Proj4js is a JavaScript library to transform point coordinates from one coordinate system to another, including datum transformations. Originally a port of PROJ.4 and GCTCP C it is a part of the MetaCRS group of projects.</t>
+  </si>
+  <si>
+    <t>Leaflet</t>
+  </si>
+  <si>
+    <t>rxjs</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/rxjs</t>
+  </si>
+  <si>
+    <t>Apache-2.0</t>
+  </si>
+  <si>
+    <t>Reactive Extensions for JavaScript</t>
+  </si>
+  <si>
+    <t>zone.js</t>
+  </si>
+  <si>
+    <t>0.*.*</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/zone.js</t>
+  </si>
+  <si>
+    <t>Zone is an execution context that persists across async tasks. You can think of it as thread-local storage for JavaScript VMs.</t>
+  </si>
+  <si>
+    <t>tslib</t>
+  </si>
+  <si>
+    <t>1.*.*</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/tslib</t>
+  </si>
+  <si>
+    <t>This is a runtime library for TypeScript that contains all of the TypeScript helper functions.</t>
+  </si>
+  <si>
+    <t>10.*.*</t>
+  </si>
+  <si>
+    <t>app-root-path</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/app-root-path</t>
+  </si>
+  <si>
+    <t>This simple module helps you access your application's root path from anywhere in the application without resorting to relative paths like require("../../path").</t>
+  </si>
+  <si>
+    <t>NodeJS</t>
+  </si>
+  <si>
+    <t>bluebird</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/bluebird</t>
+  </si>
+  <si>
+    <t>Bluebird is a fully featured promise library with focus on innovative features and performance</t>
+  </si>
+  <si>
+    <t>body-parser</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/body-parser</t>
+  </si>
+  <si>
+    <t>Node.js body parsing middleware.</t>
+  </si>
+  <si>
+    <t>cors</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/cors</t>
+  </si>
+  <si>
+    <t>CORS is a node.js package for providing a Connect/Express middleware that can be used to enable CORS with various options.</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>dotenv</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/dotenv</t>
+  </si>
+  <si>
+    <t>BSD-2-Clause</t>
+  </si>
+  <si>
+    <t>Dotenv is a zero-dependency module that loads environment variables from a .env file into process.env</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/express</t>
+  </si>
+  <si>
+    <t>Express.js, or simply Express, is a web application framework for Node.js, released as free and open-source software under the MIT License.</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/helmet</t>
+  </si>
+  <si>
+    <t>Helmet helps you secure your Express apps by setting various HTTP headers.</t>
+  </si>
+  <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
+    <t>jwt-decode</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/jwt-decode</t>
+  </si>
+  <si>
+    <t>jwt-decode is a small browser library that helps decoding JWTs token which are Base64Url encoded.</t>
+  </si>
+  <si>
+    <t>lodash</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/lodash</t>
+  </si>
+  <si>
+    <t>The Lodash library exported as Node.js modules.</t>
+  </si>
+  <si>
+    <t>log4js</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/log4js</t>
+  </si>
+  <si>
+    <t>This is a conversion of the log4js framework to work with node</t>
+  </si>
+  <si>
+    <t>mime</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/mime</t>
+  </si>
+  <si>
+    <t>A comprehensive, compact MIME type module.</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/passport</t>
+  </si>
+  <si>
+    <t>Passport's sole purpose is to authenticate requests, which it does through an extensible set of plugins known as strategies.</t>
+  </si>
+  <si>
+    <t>passport-azure-ad</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/passport-azure-ad</t>
+  </si>
+  <si>
+    <t>passport-azure-ad is a collection of Passport Strategies to help you integrate with Azure Active Directory</t>
+  </si>
+  <si>
+    <t>passport-jwt</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/passport-jwt</t>
+  </si>
+  <si>
+    <t>A Passport strategy for authenticating with a JSON Web Token.</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>7.*.*</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/pg</t>
+  </si>
+  <si>
+    <t>Non-blocking PostgreSQL client for Node.js. Pure JavaScript and optional native libpq bindings.</t>
+  </si>
+  <si>
+    <t>sequelize</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/sequelize</t>
+  </si>
+  <si>
+    <t>Sequelize is a promise-based Node.js ORM for Postgres, MySQL, SQLite and Microsoft SQL Server. It features solid transaction support, relations, read replication and more.</t>
+  </si>
+  <si>
+    <t>swagger-ui-express</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/swagger-ui-express</t>
+  </si>
+  <si>
+    <t>API documentation generator</t>
+  </si>
+  <si>
+    <t>Swagger</t>
+  </si>
+  <si>
+    <t>yamljs</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/yamljs</t>
+  </si>
+  <si>
+    <t>Standalone JavaScript YAML 1.2 Parser &amp; Encoder. Works under node.js and all major browsers. Also brings command line YAML/JSON conversion tools.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +707,47 @@
       <color theme="7"/>
       <name val="IBM Plex Sans"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="IBM Plex Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="IBM Plex Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="IBM Plex Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -436,7 +831,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -488,8 +883,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,9 +941,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,57 +953,117 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="Accent1" xfId="48" builtinId="29"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Summary Values" xfId="3" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Title" xfId="2" builtinId="15"/>
+    <cellStyle name="Titre" xfId="2" builtinId="15"/>
+    <cellStyle name="Titre 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,32 +1406,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" style="13" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="9" customWidth="1"/>
     <col min="6" max="6" width="45.83203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="29" style="10" customWidth="1"/>
     <col min="8" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="39" customHeight="1" thickBot="1">
       <c r="B1" s="18" t="str">
         <f>"COTS List - ("&amp;COUNTA(B5:B104)&amp;" Registered)"</f>
-        <v>COTS List - (1 Registered)</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>COTS List - (36 Registered)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="12"/>
       <c r="C2" s="4"/>
@@ -986,364 +1439,786 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="34">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34">
+      <c r="A5" s="2"/>
+      <c r="B5" s="34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="2"/>
+      <c r="B6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="2"/>
+      <c r="B7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="2"/>
+      <c r="B8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="2"/>
+      <c r="B9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="68">
+      <c r="A10" s="2"/>
+      <c r="B10" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17">
+      <c r="A11" s="2"/>
+      <c r="B11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="2"/>
+      <c r="B12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="2"/>
+      <c r="B13" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="2"/>
+      <c r="B14" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="2"/>
+      <c r="B15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34">
+      <c r="A16" s="2"/>
+      <c r="B16" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="34">
+      <c r="A17" s="2"/>
+      <c r="B17" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51">
+      <c r="A18" s="2"/>
+      <c r="B18" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="85">
+      <c r="A19" s="2"/>
+      <c r="B19" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17">
+      <c r="A20" s="2"/>
+      <c r="B20" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="34">
+      <c r="A21" s="2"/>
+      <c r="B21" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="51">
+      <c r="A22" s="2"/>
+      <c r="B22" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="68">
+      <c r="A23" s="2"/>
+      <c r="B23" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="1:9" ht="34">
+      <c r="A24" s="2"/>
+      <c r="B24" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17">
+      <c r="A25" s="2"/>
+      <c r="B25" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51">
+      <c r="A26" s="2"/>
+      <c r="B26" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="51">
+      <c r="A27" s="2"/>
+      <c r="B27" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="51">
+      <c r="A28" s="2"/>
+      <c r="B28" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="34">
+      <c r="A29" s="2"/>
+      <c r="B29" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C29" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E29" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F29" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" ht="34">
       <c r="A30" s="2"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B30" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17">
       <c r="A31" s="2"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B31" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="34">
       <c r="A32" s="2"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17">
       <c r="A33" s="2"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B33" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="51">
       <c r="A34" s="2"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="51">
       <c r="A35" s="2"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="34">
       <c r="A36" s="2"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="34">
       <c r="A37" s="2"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="68">
       <c r="A38" s="2"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17">
       <c r="A39" s="2"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="51">
       <c r="A40" s="2"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16">
       <c r="A41" s="2"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
@@ -1352,7 +2227,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="16">
       <c r="A42" s="2"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
@@ -1361,7 +2236,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="16">
       <c r="A43" s="2"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
@@ -1370,7 +2245,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="2"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
@@ -1379,7 +2254,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="16">
       <c r="A45" s="2"/>
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
@@ -1388,7 +2263,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="16">
       <c r="A46" s="2"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
@@ -1397,7 +2272,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="16">
       <c r="A47" s="2"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
@@ -1406,7 +2281,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="2"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
@@ -1415,7 +2290,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="16">
       <c r="A49" s="2"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
@@ -1424,7 +2299,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="16">
       <c r="A50" s="2"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
@@ -1433,7 +2308,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="16">
       <c r="A51" s="2"/>
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
@@ -1442,7 +2317,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="16">
       <c r="A52" s="2"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
@@ -1451,7 +2326,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="16">
       <c r="A53" s="2"/>
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
@@ -1460,7 +2335,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="16">
       <c r="A54" s="2"/>
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
@@ -1469,7 +2344,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="16">
       <c r="A55" s="2"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
@@ -1478,7 +2353,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
     </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="16">
       <c r="A56" s="2"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
@@ -1487,7 +2362,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="16">
       <c r="A57" s="2"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
@@ -1496,7 +2371,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="16">
       <c r="A58" s="2"/>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
@@ -1505,7 +2380,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="16">
       <c r="A59" s="2"/>
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
@@ -1514,7 +2389,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
     </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="16">
       <c r="A60" s="2"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -1523,7 +2398,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="16">
       <c r="A61" s="2"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
@@ -1532,7 +2407,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
     </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="16">
       <c r="A62" s="2"/>
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
@@ -1541,7 +2416,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="16">
       <c r="A63" s="2"/>
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
@@ -1550,7 +2425,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
     </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="16">
       <c r="A64" s="2"/>
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
@@ -1559,7 +2434,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="16">
       <c r="A65" s="2"/>
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
@@ -1568,7 +2443,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="16">
       <c r="A66" s="2"/>
       <c r="B66" s="14"/>
       <c r="C66" s="15"/>
@@ -1577,7 +2452,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="16">
       <c r="A67" s="2"/>
       <c r="B67" s="14"/>
       <c r="C67" s="15"/>
@@ -1586,7 +2461,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="16">
       <c r="A68" s="2"/>
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
@@ -1595,7 +2470,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="16">
       <c r="A69" s="2"/>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
@@ -1604,7 +2479,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="16">
       <c r="A70" s="2"/>
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
@@ -1613,7 +2488,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="16">
       <c r="A71" s="2"/>
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
@@ -1622,7 +2497,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="16">
       <c r="A72" s="2"/>
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
@@ -1631,7 +2506,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="16">
       <c r="A73" s="2"/>
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
@@ -1640,7 +2515,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="16">
       <c r="A74" s="2"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
@@ -1649,7 +2524,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="16">
       <c r="A75" s="2"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
@@ -1658,7 +2533,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
     </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="16">
       <c r="A76" s="2"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
@@ -1667,7 +2542,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="16">
       <c r="A77" s="2"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
@@ -1676,7 +2551,7 @@
       <c r="F77" s="17"/>
       <c r="G77" s="17"/>
     </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="16">
       <c r="A78" s="2"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
@@ -1685,7 +2560,7 @@
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
     </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="16">
       <c r="A79" s="2"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15"/>
@@ -1694,7 +2569,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="16">
       <c r="A80" s="2"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
@@ -1703,7 +2578,7 @@
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
     </row>
-    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="16">
       <c r="A81" s="2"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15"/>
@@ -1712,7 +2587,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
     </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="16">
       <c r="A82" s="2"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
@@ -1721,7 +2596,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
     </row>
-    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="16">
       <c r="A83" s="2"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
@@ -1730,7 +2605,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
     </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="16">
       <c r="A84" s="2"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15"/>
@@ -1739,7 +2614,7 @@
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
     </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="16">
       <c r="A85" s="2"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
@@ -1748,7 +2623,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
     </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="16">
       <c r="A86" s="2"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15"/>
@@ -1757,7 +2632,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
     </row>
-    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="16">
       <c r="A87" s="2"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
@@ -1766,7 +2641,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
     </row>
-    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="16">
       <c r="A88" s="2"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
@@ -1775,7 +2650,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
     </row>
-    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="16">
       <c r="A89" s="2"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -1784,7 +2659,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
     </row>
-    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="16">
       <c r="A90" s="2"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
@@ -1793,7 +2668,7 @@
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
     </row>
-    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="16">
       <c r="A91" s="2"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
@@ -1802,7 +2677,7 @@
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
     </row>
-    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="16">
       <c r="A92" s="2"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
@@ -1811,7 +2686,7 @@
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
     </row>
-    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="16">
       <c r="A93" s="2"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
@@ -1820,7 +2695,7 @@
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
     </row>
-    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="16">
       <c r="A94" s="2"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
@@ -1829,7 +2704,7 @@
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
     </row>
-    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="16">
       <c r="A95" s="2"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
@@ -1838,7 +2713,7 @@
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
     </row>
-    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="16">
       <c r="A96" s="2"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
@@ -1847,7 +2722,7 @@
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
     </row>
-    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="16">
       <c r="A97" s="2"/>
       <c r="B97" s="14"/>
       <c r="C97" s="15"/>
@@ -1856,7 +2731,7 @@
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
     </row>
-    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="16">
       <c r="A98" s="2"/>
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
@@ -1865,7 +2740,7 @@
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
     </row>
-    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="16">
       <c r="A99" s="2"/>
       <c r="B99" s="14"/>
       <c r="C99" s="15"/>
@@ -1874,7 +2749,7 @@
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
     </row>
-    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="16">
       <c r="A100" s="2"/>
       <c r="B100" s="14"/>
       <c r="C100" s="15"/>
@@ -1883,7 +2758,7 @@
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
     </row>
-    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="16">
       <c r="A101" s="2"/>
       <c r="B101" s="14"/>
       <c r="C101" s="15"/>
@@ -1892,7 +2767,7 @@
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
     </row>
-    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="16">
       <c r="A102" s="2"/>
       <c r="B102" s="14"/>
       <c r="C102" s="15"/>
@@ -1901,7 +2776,7 @@
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
     </row>
-    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="16">
       <c r="A103" s="2"/>
       <c r="B103" s="14"/>
       <c r="C103" s="15"/>
@@ -1910,7 +2785,7 @@
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
     </row>
-    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="16">
       <c r="A104" s="2"/>
       <c r="B104" s="14"/>
       <c r="C104" s="15"/>
@@ -1920,758 +2795,701 @@
       <c r="G104" s="17"/>
     </row>
   </sheetData>
+  <autoFilter ref="B4:G4" xr:uid="{6F078BB8-EA6E-4A4D-86BD-D9856AE56810}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G40">
+      <sortCondition ref="B4:B40"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{0B6F9ADC-EE7B-CD42-961D-67F77CDF8C1A}"/>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{0B6F9ADC-EE7B-CD42-961D-67F77CDF8C1A}"/>
+    <hyperlink ref="D23" r:id="rId2" xr:uid="{57EEF48C-4803-AC4F-BE93-91BEBB0873EA}"/>
+    <hyperlink ref="D40" r:id="rId3" xr:uid="{7496FD11-1F00-5F41-B2A7-507FBC19ED99}"/>
+    <hyperlink ref="D38" r:id="rId4" xr:uid="{9802B218-0DB3-C841-9121-27AB8EC56D17}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{8E5EB032-728D-704B-B5F0-FAC8C55BFE10}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{5221DADD-7AC0-EB4F-A2A7-306F868E3FA1}"/>
+    <hyperlink ref="D18" r:id="rId7" xr:uid="{38489070-47F8-F941-A8B1-76D8B375DD92}"/>
+    <hyperlink ref="D21" r:id="rId8" xr:uid="{AE8D11CB-E825-4C45-9834-C87F9C17BA5E}"/>
+    <hyperlink ref="D25" r:id="rId9" xr:uid="{E65F263A-3188-894D-BA69-E261EE620918}"/>
+    <hyperlink ref="D26" r:id="rId10" xr:uid="{F1544DFD-8672-1C4E-BBD4-3487CA54023F}"/>
+    <hyperlink ref="D27" r:id="rId11" xr:uid="{7A00F97D-130C-5743-A124-269AFEA6396D}"/>
+    <hyperlink ref="D30" r:id="rId12" xr:uid="{85EFFB62-480B-E341-A456-51C6C3B16B94}"/>
+    <hyperlink ref="D32" r:id="rId13" xr:uid="{BEBCF35C-4E7D-3C49-AE74-13F94B34BBC1}"/>
+    <hyperlink ref="D31" r:id="rId14" xr:uid="{23BFB7C8-8105-C147-A36C-A2F6D8EC4B8F}"/>
+    <hyperlink ref="D33" r:id="rId15" xr:uid="{C7770802-A95F-8C42-A292-70FA7C3C5319}"/>
+    <hyperlink ref="D36" r:id="rId16" xr:uid="{4415E758-7CEB-874F-AE4A-C6C3ADF74690}"/>
+    <hyperlink ref="D39" r:id="rId17" xr:uid="{53E0A9A6-CA1E-184D-809C-F59EC256D5C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <drawing r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="118" style="7" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:2" s="21" customFormat="1" ht="29">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="6" customFormat="1" ht="21">
       <c r="A2" s="2"/>
-      <c r="B2" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="B3" s="10" t="str">
         <f>"|**"&amp;'01 - COTS List'!B4&amp;"**|"&amp;'01 - COTS List'!C4&amp;"|"&amp;'01 - COTS List'!D4&amp;"|"&amp;'01 - COTS List'!E4&amp;"|"&amp;'01 - COTS List'!F4&amp;"|"</f>
         <v>|**Nom**|Version|URL|Licence|Description|</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="B4" s="10" t="str">
         <f>"|---|:---:|---|:---:|---|"</f>
         <v>|---|:---:|---|:---:|---|</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="B5" s="10" t="str">
         <f>IF('01 - COTS List'!B5="","","|**"&amp;'01 - COTS List'!B5&amp;"**|"&amp;'01 - COTS List'!C5&amp;"|"&amp;'01 - COTS List'!D5&amp;"|"&amp;'01 - COTS List'!E5&amp;"|"&amp;'01 - COTS List'!F5&amp;"|")</f>
-        <v>|**Node**|10.X.Y|https://nodejs.org/en/|MIT|Node.js is a JavaScript runtime built on Chrome's V8 JavaScript engine.|</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>|**@angular/animations**|8.*.*|https://www.npmjs.com/package/@angular/animations|MIT|Angular Module for animations|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" s="10" t="str">
         <f>IF('01 - COTS List'!B6="","","|**"&amp;'01 - COTS List'!B6&amp;"**|"&amp;'01 - COTS List'!C6&amp;"|"&amp;'01 - COTS List'!D6&amp;"|"&amp;'01 - COTS List'!E6&amp;"|"&amp;'01 - COTS List'!F6&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>|**@angular/cdk**|8.*.*|https://www.npmjs.com/package/@angular/cdk|MIT|Angular Module Material Design|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7" s="10" t="str">
         <f>IF('01 - COTS List'!B7="","","|**"&amp;'01 - COTS List'!B7&amp;"**|"&amp;'01 - COTS List'!C7&amp;"|"&amp;'01 - COTS List'!D7&amp;"|"&amp;'01 - COTS List'!E7&amp;"|"&amp;'01 - COTS List'!F7&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>|**@angular/common**|8.*.*|https://www.npmjs.com/package/@angular/common|MIT|Angular Module|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8" s="10" t="str">
         <f>IF('01 - COTS List'!B8="","","|**"&amp;'01 - COTS List'!B8&amp;"**|"&amp;'01 - COTS List'!C8&amp;"|"&amp;'01 - COTS List'!D8&amp;"|"&amp;'01 - COTS List'!E8&amp;"|"&amp;'01 - COTS List'!F8&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>|**@angular/compiler**|8.*.*|https://www.npmjs.com/package/@angular/compiler|MIT|Angular Module|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="B9" s="10" t="str">
         <f>IF('01 - COTS List'!B9="","","|**"&amp;'01 - COTS List'!B9&amp;"**|"&amp;'01 - COTS List'!C9&amp;"|"&amp;'01 - COTS List'!D9&amp;"|"&amp;'01 - COTS List'!E9&amp;"|"&amp;'01 - COTS List'!F9&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>|**@angular/core**|8.*.*|https://www.npmjs.com/package/@angular/core|MIT|Angular is a TypeScript-based open-source front-end web application platform led by the Angular Team at Google and by a community of individuals and corporations|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="B10" s="10" t="str">
         <f>IF('01 - COTS List'!B10="","","|**"&amp;'01 - COTS List'!B10&amp;"**|"&amp;'01 - COTS List'!C10&amp;"|"&amp;'01 - COTS List'!D10&amp;"|"&amp;'01 - COTS List'!E10&amp;"|"&amp;'01 - COTS List'!F10&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>|**@angular/forms**|8.*.*|https://www.npmjs.com/package/@angular/forms|MIT|Angular Module for forms|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="B11" s="10" t="str">
         <f>IF('01 - COTS List'!B11="","","|**"&amp;'01 - COTS List'!B11&amp;"**|"&amp;'01 - COTS List'!C11&amp;"|"&amp;'01 - COTS List'!D11&amp;"|"&amp;'01 - COTS List'!E11&amp;"|"&amp;'01 - COTS List'!F11&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>|**@angular/material**|8.*.*|https://www.npmjs.com/package/@angular/material|MIT|Angular Module Material Design|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" s="10" t="str">
         <f>IF('01 - COTS List'!B12="","","|**"&amp;'01 - COTS List'!B12&amp;"**|"&amp;'01 - COTS List'!C12&amp;"|"&amp;'01 - COTS List'!D12&amp;"|"&amp;'01 - COTS List'!E12&amp;"|"&amp;'01 - COTS List'!F12&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>|**@angular/platform-browser**|8.*.*|https://www.npmjs.com/package/@angular/platform-browser|MIT|Angular Module|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="B13" s="10" t="str">
         <f>IF('01 - COTS List'!B13="","","|**"&amp;'01 - COTS List'!B13&amp;"**|"&amp;'01 - COTS List'!C13&amp;"|"&amp;'01 - COTS List'!D13&amp;"|"&amp;'01 - COTS List'!E13&amp;"|"&amp;'01 - COTS List'!F13&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>|**@angular/platform-browser-dynamic**|8.*.*|https://www.npmjs.com/package/@angular/platform-browser-dynamic|MIT|Angular Module|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="B14" s="10" t="str">
         <f>IF('01 - COTS List'!B14="","","|**"&amp;'01 - COTS List'!B14&amp;"**|"&amp;'01 - COTS List'!C14&amp;"|"&amp;'01 - COTS List'!D14&amp;"|"&amp;'01 - COTS List'!E14&amp;"|"&amp;'01 - COTS List'!F14&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>|**@angular/router**|8.*.*|https://www.npmjs.com/package/@angular/router|MIT|Angular Module for Router|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="B15" s="10" t="str">
         <f>IF('01 - COTS List'!B15="","","|**"&amp;'01 - COTS List'!B15&amp;"**|"&amp;'01 - COTS List'!C15&amp;"|"&amp;'01 - COTS List'!D15&amp;"|"&amp;'01 - COTS List'!E15&amp;"|"&amp;'01 - COTS List'!F15&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>|**@ngx-translate/core**|11.*.*|https://www.npmjs.com/package/@ngx-translate/core|MIT|The internationalization (i18n) library for Angular|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="B16" s="10" t="str">
         <f>IF('01 - COTS List'!B16="","","|**"&amp;'01 - COTS List'!B16&amp;"**|"&amp;'01 - COTS List'!C16&amp;"|"&amp;'01 - COTS List'!D16&amp;"|"&amp;'01 - COTS List'!E16&amp;"|"&amp;'01 - COTS List'!F16&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**@ngx-translate/http-loader**|4.*.*|https://www.npmjs.com/package/@ngx-translate/http-loader|MIT|A loader for ngx-translate that loads translations using http.|</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" s="10" t="str">
         <f>IF('01 - COTS List'!B17="","","|**"&amp;'01 - COTS List'!B17&amp;"**|"&amp;'01 - COTS List'!C17&amp;"|"&amp;'01 - COTS List'!D17&amp;"|"&amp;'01 - COTS List'!E17&amp;"|"&amp;'01 - COTS List'!F17&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**app-root-path**|2.*.*|https://www.npmjs.com/package/app-root-path|MIT|This simple module helps you access your application's root path from anywhere in the application without resorting to relative paths like require("../../path").|</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" s="10" t="str">
         <f>IF('01 - COTS List'!B18="","","|**"&amp;'01 - COTS List'!B18&amp;"**|"&amp;'01 - COTS List'!C18&amp;"|"&amp;'01 - COTS List'!D18&amp;"|"&amp;'01 - COTS List'!E18&amp;"|"&amp;'01 - COTS List'!F18&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**bluebird**|3.*.*|https://www.npmjs.com/package/bluebird|MIT|Bluebird is a fully featured promise library with focus on innovative features and performance|</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" s="10" t="str">
         <f>IF('01 - COTS List'!B19="","","|**"&amp;'01 - COTS List'!B19&amp;"**|"&amp;'01 - COTS List'!C19&amp;"|"&amp;'01 - COTS List'!D19&amp;"|"&amp;'01 - COTS List'!E19&amp;"|"&amp;'01 - COTS List'!F19&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**body-parser**|1.*.*|https://www.npmjs.com/package/body-parser|MIT|Node.js body parsing middleware.|</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" s="10" t="str">
         <f>IF('01 - COTS List'!B20="","","|**"&amp;'01 - COTS List'!B20&amp;"**|"&amp;'01 - COTS List'!C20&amp;"|"&amp;'01 - COTS List'!D20&amp;"|"&amp;'01 - COTS List'!E20&amp;"|"&amp;'01 - COTS List'!F20&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**cors**|2.*.*|https://www.npmjs.com/package/cors|MIT|CORS is a node.js package for providing a Connect/Express middleware that can be used to enable CORS with various options.|</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
       <c r="B21" s="10" t="str">
         <f>IF('01 - COTS List'!B21="","","|**"&amp;'01 - COTS List'!B21&amp;"**|"&amp;'01 - COTS List'!C21&amp;"|"&amp;'01 - COTS List'!D21&amp;"|"&amp;'01 - COTS List'!E21&amp;"|"&amp;'01 - COTS List'!F21&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**dotenv**|6.*.*|https://www.npmjs.com/package/dotenv|BSD-2-Clause|Dotenv is a zero-dependency module that loads environment variables from a .env file into process.env|</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" s="10" t="str">
         <f>IF('01 - COTS List'!B22="","","|**"&amp;'01 - COTS List'!B22&amp;"**|"&amp;'01 - COTS List'!C22&amp;"|"&amp;'01 - COTS List'!D22&amp;"|"&amp;'01 - COTS List'!E22&amp;"|"&amp;'01 - COTS List'!F22&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**express**|4.*.*|https://www.npmjs.com/package/express|MIT|Express.js, or simply Express, is a web application framework for Node.js, released as free and open-source software under the MIT License.|</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="10" t="str">
         <f>IF('01 - COTS List'!B23="","","|**"&amp;'01 - COTS List'!B23&amp;"**|"&amp;'01 - COTS List'!C23&amp;"|"&amp;'01 - COTS List'!D23&amp;"|"&amp;'01 - COTS List'!E23&amp;"|"&amp;'01 - COTS List'!F23&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**hammer.js**|2.*.*|https://www.npmjs.com/package/hammerjs|MIT|Hammer is a open-source library that can recognize gestures made by touch, mouse and pointerEvents|</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
       <c r="B24" s="10" t="str">
         <f>IF('01 - COTS List'!B24="","","|**"&amp;'01 - COTS List'!B24&amp;"**|"&amp;'01 - COTS List'!C24&amp;"|"&amp;'01 - COTS List'!D24&amp;"|"&amp;'01 - COTS List'!E24&amp;"|"&amp;'01 - COTS List'!F24&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**helmet**|3.*.*|https://www.npmjs.com/package/helmet|MIT|Helmet helps you secure your Express apps by setting various HTTP headers.|</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
       <c r="B25" s="10" t="str">
         <f>IF('01 - COTS List'!B25="","","|**"&amp;'01 - COTS List'!B25&amp;"**|"&amp;'01 - COTS List'!C25&amp;"|"&amp;'01 - COTS List'!D25&amp;"|"&amp;'01 - COTS List'!E25&amp;"|"&amp;'01 - COTS List'!F25&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**jwt-decode**|2.*.*|https://www.npmjs.com/package/jwt-decode|MIT|jwt-decode is a small browser library that helps decoding JWTs token which are Base64Url encoded.|</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
       <c r="B26" s="10" t="str">
         <f>IF('01 - COTS List'!B26="","","|**"&amp;'01 - COTS List'!B26&amp;"**|"&amp;'01 - COTS List'!C26&amp;"|"&amp;'01 - COTS List'!D26&amp;"|"&amp;'01 - COTS List'!E26&amp;"|"&amp;'01 - COTS List'!F26&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**lodash**|4.*.*|https://www.npmjs.com/package/lodash|MIT|The Lodash library exported as Node.js modules.|</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
       <c r="B27" s="10" t="str">
         <f>IF('01 - COTS List'!B27="","","|**"&amp;'01 - COTS List'!B27&amp;"**|"&amp;'01 - COTS List'!C27&amp;"|"&amp;'01 - COTS List'!D27&amp;"|"&amp;'01 - COTS List'!E27&amp;"|"&amp;'01 - COTS List'!F27&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**log4js**|3.*.*|https://www.npmjs.com/package/log4js|MIT|This is a conversion of the log4js framework to work with node|</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
       <c r="B28" s="10" t="str">
         <f>IF('01 - COTS List'!B28="","","|**"&amp;'01 - COTS List'!B28&amp;"**|"&amp;'01 - COTS List'!C28&amp;"|"&amp;'01 - COTS List'!D28&amp;"|"&amp;'01 - COTS List'!E28&amp;"|"&amp;'01 - COTS List'!F28&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**mime**|2.*.*|https://www.npmjs.com/package/mime|MIT|A comprehensive, compact MIME type module.|</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29" s="10" t="str">
         <f>IF('01 - COTS List'!B29="","","|**"&amp;'01 - COTS List'!B29&amp;"**|"&amp;'01 - COTS List'!C29&amp;"|"&amp;'01 - COTS List'!D29&amp;"|"&amp;'01 - COTS List'!E29&amp;"|"&amp;'01 - COTS List'!F29&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**Node**|10.*.*|https://nodejs.org/en/|MIT|Node.js is a JavaScript runtime built on Chrome's V8 JavaScript engine.|</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
       <c r="B30" s="10" t="str">
         <f>IF('01 - COTS List'!B30="","","|**"&amp;'01 - COTS List'!B30&amp;"**|"&amp;'01 - COTS List'!C30&amp;"|"&amp;'01 - COTS List'!D30&amp;"|"&amp;'01 - COTS List'!E30&amp;"|"&amp;'01 - COTS List'!F30&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**passport**|0.*.*|https://www.npmjs.com/package/passport|MIT|Passport's sole purpose is to authenticate requests, which it does through an extensible set of plugins known as strategies.|</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
       <c r="B31" s="10" t="str">
         <f>IF('01 - COTS List'!B31="","","|**"&amp;'01 - COTS List'!B31&amp;"**|"&amp;'01 - COTS List'!C31&amp;"|"&amp;'01 - COTS List'!D31&amp;"|"&amp;'01 - COTS List'!E31&amp;"|"&amp;'01 - COTS List'!F31&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**passport-azure-ad**|4.*.*|https://www.npmjs.com/package/passport-azure-ad|MIT|passport-azure-ad is a collection of Passport Strategies to help you integrate with Azure Active Directory|</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="10" t="str">
         <f>IF('01 - COTS List'!B32="","","|**"&amp;'01 - COTS List'!B32&amp;"**|"&amp;'01 - COTS List'!C32&amp;"|"&amp;'01 - COTS List'!D32&amp;"|"&amp;'01 - COTS List'!E32&amp;"|"&amp;'01 - COTS List'!F32&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**passport-jwt**|4.*.*|https://www.npmjs.com/package/passport-jwt|MIT|A Passport strategy for authenticating with a JSON Web Token.|</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" s="10" t="str">
         <f>IF('01 - COTS List'!B33="","","|**"&amp;'01 - COTS List'!B33&amp;"**|"&amp;'01 - COTS List'!C33&amp;"|"&amp;'01 - COTS List'!D33&amp;"|"&amp;'01 - COTS List'!E33&amp;"|"&amp;'01 - COTS List'!F33&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**pg**|7.*.*|https://www.npmjs.com/package/pg|MIT|Non-blocking PostgreSQL client for Node.js. Pure JavaScript and optional native libpq bindings.|</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="10" t="str">
         <f>IF('01 - COTS List'!B34="","","|**"&amp;'01 - COTS List'!B34&amp;"**|"&amp;'01 - COTS List'!C34&amp;"|"&amp;'01 - COTS List'!D34&amp;"|"&amp;'01 - COTS List'!E34&amp;"|"&amp;'01 - COTS List'!F34&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**proj4**|2.*.*|https://www.npmjs.com/package/proj4|MIT|Proj4js is a JavaScript library to transform point coordinates from one coordinate system to another, including datum transformations. Originally a port of PROJ.4 and GCTCP C it is a part of the MetaCRS group of projects.|</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="10" t="str">
         <f>IF('01 - COTS List'!B35="","","|**"&amp;'01 - COTS List'!B35&amp;"**|"&amp;'01 - COTS List'!C35&amp;"|"&amp;'01 - COTS List'!D35&amp;"|"&amp;'01 - COTS List'!E35&amp;"|"&amp;'01 - COTS List'!F35&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**rxjs**|6.*.*|https://www.npmjs.com/package/rxjs|Apache-2.0|Reactive Extensions for JavaScript|</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
       <c r="B36" s="10" t="str">
         <f>IF('01 - COTS List'!B36="","","|**"&amp;'01 - COTS List'!B36&amp;"**|"&amp;'01 - COTS List'!C36&amp;"|"&amp;'01 - COTS List'!D36&amp;"|"&amp;'01 - COTS List'!E36&amp;"|"&amp;'01 - COTS List'!F36&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**sequelize**|4.*.*|https://www.npmjs.com/package/sequelize|MIT|Sequelize is a promise-based Node.js ORM for Postgres, MySQL, SQLite and Microsoft SQL Server. It features solid transaction support, relations, read replication and more.|</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
       <c r="B37" s="10" t="str">
         <f>IF('01 - COTS List'!B37="","","|**"&amp;'01 - COTS List'!B37&amp;"**|"&amp;'01 - COTS List'!C37&amp;"|"&amp;'01 - COTS List'!D37&amp;"|"&amp;'01 - COTS List'!E37&amp;"|"&amp;'01 - COTS List'!F37&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**swagger-ui-express**|3.*.*|https://www.npmjs.com/package/swagger-ui-express|MIT|API documentation generator|</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38" s="10" t="str">
         <f>IF('01 - COTS List'!B38="","","|**"&amp;'01 - COTS List'!B38&amp;"**|"&amp;'01 - COTS List'!C38&amp;"|"&amp;'01 - COTS List'!D38&amp;"|"&amp;'01 - COTS List'!E38&amp;"|"&amp;'01 - COTS List'!F38&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**tslib**|1.*.*|https://www.npmjs.com/package/tslib|Apache-2.0|This is a runtime library for TypeScript that contains all of the TypeScript helper functions.|</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
       <c r="B39" s="10" t="str">
         <f>IF('01 - COTS List'!B39="","","|**"&amp;'01 - COTS List'!B39&amp;"**|"&amp;'01 - COTS List'!C39&amp;"|"&amp;'01 - COTS List'!D39&amp;"|"&amp;'01 - COTS List'!E39&amp;"|"&amp;'01 - COTS List'!F39&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**yamljs**|0.*.*|https://www.npmjs.com/package/yamljs|MIT|Standalone JavaScript YAML 1.2 Parser &amp; Encoder. Works under node.js and all major browsers. Also brings command line YAML/JSON conversion tools.|</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
       <c r="B40" s="10" t="str">
         <f>IF('01 - COTS List'!B40="","","|**"&amp;'01 - COTS List'!B40&amp;"**|"&amp;'01 - COTS List'!C40&amp;"|"&amp;'01 - COTS List'!D40&amp;"|"&amp;'01 - COTS List'!E40&amp;"|"&amp;'01 - COTS List'!F40&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+        <v>|**zone.js**|0.*.*|https://www.npmjs.com/package/zone.js|MIT|Zone is an execution context that persists across async tasks. You can think of it as thread-local storage for JavaScript VMs.|</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41" s="10" t="str">
         <f>IF('01 - COTS List'!B41="","","|**"&amp;'01 - COTS List'!B41&amp;"**|"&amp;'01 - COTS List'!C41&amp;"|"&amp;'01 - COTS List'!D41&amp;"|"&amp;'01 - COTS List'!E41&amp;"|"&amp;'01 - COTS List'!F41&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" s="10" t="str">
         <f>IF('01 - COTS List'!B42="","","|**"&amp;'01 - COTS List'!B42&amp;"**|"&amp;'01 - COTS List'!C42&amp;"|"&amp;'01 - COTS List'!D42&amp;"|"&amp;'01 - COTS List'!E42&amp;"|"&amp;'01 - COTS List'!F42&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" s="10" t="str">
         <f>IF('01 - COTS List'!B43="","","|**"&amp;'01 - COTS List'!B43&amp;"**|"&amp;'01 - COTS List'!C43&amp;"|"&amp;'01 - COTS List'!D43&amp;"|"&amp;'01 - COTS List'!E43&amp;"|"&amp;'01 - COTS List'!F43&amp;"|")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" s="10" t="str">
-        <f>IF('01 - COTS List'!B44="","","|**"&amp;'01 - COTS List'!B44&amp;"**|"&amp;'01 - COTS List'!C44&amp;"|"&amp;'01 - COTS List'!D44&amp;"|"&amp;'01 - COTS List'!E44&amp;"|"&amp;'01 - COTS List'!F44&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B57="","","|**"&amp;'01 - COTS List'!B57&amp;"**|"&amp;'01 - COTS List'!C57&amp;"|"&amp;'01 - COTS List'!D57&amp;"|"&amp;'01 - COTS List'!E57&amp;"|"&amp;'01 - COTS List'!F57&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
       <c r="B45" s="10" t="str">
-        <f>IF('01 - COTS List'!B45="","","|**"&amp;'01 - COTS List'!B45&amp;"**|"&amp;'01 - COTS List'!C45&amp;"|"&amp;'01 - COTS List'!D45&amp;"|"&amp;'01 - COTS List'!E45&amp;"|"&amp;'01 - COTS List'!F45&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B58="","","|**"&amp;'01 - COTS List'!B58&amp;"**|"&amp;'01 - COTS List'!C58&amp;"|"&amp;'01 - COTS List'!D58&amp;"|"&amp;'01 - COTS List'!E58&amp;"|"&amp;'01 - COTS List'!F58&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46" s="10" t="str">
-        <f>IF('01 - COTS List'!B46="","","|**"&amp;'01 - COTS List'!B46&amp;"**|"&amp;'01 - COTS List'!C46&amp;"|"&amp;'01 - COTS List'!D46&amp;"|"&amp;'01 - COTS List'!E46&amp;"|"&amp;'01 - COTS List'!F46&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B59="","","|**"&amp;'01 - COTS List'!B59&amp;"**|"&amp;'01 - COTS List'!C59&amp;"|"&amp;'01 - COTS List'!D59&amp;"|"&amp;'01 - COTS List'!E59&amp;"|"&amp;'01 - COTS List'!F59&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
       <c r="B47" s="10" t="str">
-        <f>IF('01 - COTS List'!B47="","","|**"&amp;'01 - COTS List'!B47&amp;"**|"&amp;'01 - COTS List'!C47&amp;"|"&amp;'01 - COTS List'!D47&amp;"|"&amp;'01 - COTS List'!E47&amp;"|"&amp;'01 - COTS List'!F47&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B60="","","|**"&amp;'01 - COTS List'!B60&amp;"**|"&amp;'01 - COTS List'!C60&amp;"|"&amp;'01 - COTS List'!D60&amp;"|"&amp;'01 - COTS List'!E60&amp;"|"&amp;'01 - COTS List'!F60&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
       <c r="B48" s="10" t="str">
-        <f>IF('01 - COTS List'!B48="","","|**"&amp;'01 - COTS List'!B48&amp;"**|"&amp;'01 - COTS List'!C48&amp;"|"&amp;'01 - COTS List'!D48&amp;"|"&amp;'01 - COTS List'!E48&amp;"|"&amp;'01 - COTS List'!F48&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B61="","","|**"&amp;'01 - COTS List'!B61&amp;"**|"&amp;'01 - COTS List'!C61&amp;"|"&amp;'01 - COTS List'!D61&amp;"|"&amp;'01 - COTS List'!E61&amp;"|"&amp;'01 - COTS List'!F61&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
       <c r="B49" s="10" t="str">
-        <f>IF('01 - COTS List'!B49="","","|**"&amp;'01 - COTS List'!B49&amp;"**|"&amp;'01 - COTS List'!C49&amp;"|"&amp;'01 - COTS List'!D49&amp;"|"&amp;'01 - COTS List'!E49&amp;"|"&amp;'01 - COTS List'!F49&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B62="","","|**"&amp;'01 - COTS List'!B62&amp;"**|"&amp;'01 - COTS List'!C62&amp;"|"&amp;'01 - COTS List'!D62&amp;"|"&amp;'01 - COTS List'!E62&amp;"|"&amp;'01 - COTS List'!F62&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
       <c r="B50" s="10" t="str">
-        <f>IF('01 - COTS List'!B50="","","|**"&amp;'01 - COTS List'!B50&amp;"**|"&amp;'01 - COTS List'!C50&amp;"|"&amp;'01 - COTS List'!D50&amp;"|"&amp;'01 - COTS List'!E50&amp;"|"&amp;'01 - COTS List'!F50&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B63="","","|**"&amp;'01 - COTS List'!B63&amp;"**|"&amp;'01 - COTS List'!C63&amp;"|"&amp;'01 - COTS List'!D63&amp;"|"&amp;'01 - COTS List'!E63&amp;"|"&amp;'01 - COTS List'!F63&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
       <c r="B51" s="10" t="str">
-        <f>IF('01 - COTS List'!B51="","","|**"&amp;'01 - COTS List'!B51&amp;"**|"&amp;'01 - COTS List'!C51&amp;"|"&amp;'01 - COTS List'!D51&amp;"|"&amp;'01 - COTS List'!E51&amp;"|"&amp;'01 - COTS List'!F51&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B64="","","|**"&amp;'01 - COTS List'!B64&amp;"**|"&amp;'01 - COTS List'!C64&amp;"|"&amp;'01 - COTS List'!D64&amp;"|"&amp;'01 - COTS List'!E64&amp;"|"&amp;'01 - COTS List'!F64&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
       <c r="B52" s="10" t="str">
-        <f>IF('01 - COTS List'!B52="","","|**"&amp;'01 - COTS List'!B52&amp;"**|"&amp;'01 - COTS List'!C52&amp;"|"&amp;'01 - COTS List'!D52&amp;"|"&amp;'01 - COTS List'!E52&amp;"|"&amp;'01 - COTS List'!F52&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B65="","","|**"&amp;'01 - COTS List'!B65&amp;"**|"&amp;'01 - COTS List'!C65&amp;"|"&amp;'01 - COTS List'!D65&amp;"|"&amp;'01 - COTS List'!E65&amp;"|"&amp;'01 - COTS List'!F65&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" s="10" t="str">
-        <f>IF('01 - COTS List'!B53="","","|**"&amp;'01 - COTS List'!B53&amp;"**|"&amp;'01 - COTS List'!C53&amp;"|"&amp;'01 - COTS List'!D53&amp;"|"&amp;'01 - COTS List'!E53&amp;"|"&amp;'01 - COTS List'!F53&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B66="","","|**"&amp;'01 - COTS List'!B66&amp;"**|"&amp;'01 - COTS List'!C66&amp;"|"&amp;'01 - COTS List'!D66&amp;"|"&amp;'01 - COTS List'!E66&amp;"|"&amp;'01 - COTS List'!F66&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
       <c r="B54" s="10" t="str">
-        <f>IF('01 - COTS List'!B54="","","|**"&amp;'01 - COTS List'!B54&amp;"**|"&amp;'01 - COTS List'!C54&amp;"|"&amp;'01 - COTS List'!D54&amp;"|"&amp;'01 - COTS List'!E54&amp;"|"&amp;'01 - COTS List'!F54&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B67="","","|**"&amp;'01 - COTS List'!B67&amp;"**|"&amp;'01 - COTS List'!C67&amp;"|"&amp;'01 - COTS List'!D67&amp;"|"&amp;'01 - COTS List'!E67&amp;"|"&amp;'01 - COTS List'!F67&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
       <c r="B55" s="10" t="str">
-        <f>IF('01 - COTS List'!B55="","","|**"&amp;'01 - COTS List'!B55&amp;"**|"&amp;'01 - COTS List'!C55&amp;"|"&amp;'01 - COTS List'!D55&amp;"|"&amp;'01 - COTS List'!E55&amp;"|"&amp;'01 - COTS List'!F55&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B68="","","|**"&amp;'01 - COTS List'!B68&amp;"**|"&amp;'01 - COTS List'!C68&amp;"|"&amp;'01 - COTS List'!D68&amp;"|"&amp;'01 - COTS List'!E68&amp;"|"&amp;'01 - COTS List'!F68&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
       <c r="B56" s="10" t="str">
-        <f>IF('01 - COTS List'!B56="","","|**"&amp;'01 - COTS List'!B56&amp;"**|"&amp;'01 - COTS List'!C56&amp;"|"&amp;'01 - COTS List'!D56&amp;"|"&amp;'01 - COTS List'!E56&amp;"|"&amp;'01 - COTS List'!F56&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B69="","","|**"&amp;'01 - COTS List'!B69&amp;"**|"&amp;'01 - COTS List'!C69&amp;"|"&amp;'01 - COTS List'!D69&amp;"|"&amp;'01 - COTS List'!E69&amp;"|"&amp;'01 - COTS List'!F69&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
       <c r="B57" s="10" t="str">
-        <f>IF('01 - COTS List'!B57="","","|**"&amp;'01 - COTS List'!B57&amp;"**|"&amp;'01 - COTS List'!C57&amp;"|"&amp;'01 - COTS List'!D57&amp;"|"&amp;'01 - COTS List'!E57&amp;"|"&amp;'01 - COTS List'!F57&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B70="","","|**"&amp;'01 - COTS List'!B70&amp;"**|"&amp;'01 - COTS List'!C70&amp;"|"&amp;'01 - COTS List'!D70&amp;"|"&amp;'01 - COTS List'!E70&amp;"|"&amp;'01 - COTS List'!F70&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
       <c r="B58" s="10" t="str">
-        <f>IF('01 - COTS List'!B58="","","|**"&amp;'01 - COTS List'!B58&amp;"**|"&amp;'01 - COTS List'!C58&amp;"|"&amp;'01 - COTS List'!D58&amp;"|"&amp;'01 - COTS List'!E58&amp;"|"&amp;'01 - COTS List'!F58&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B71="","","|**"&amp;'01 - COTS List'!B71&amp;"**|"&amp;'01 - COTS List'!C71&amp;"|"&amp;'01 - COTS List'!D71&amp;"|"&amp;'01 - COTS List'!E71&amp;"|"&amp;'01 - COTS List'!F71&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
       <c r="B59" s="10" t="str">
-        <f>IF('01 - COTS List'!B59="","","|**"&amp;'01 - COTS List'!B59&amp;"**|"&amp;'01 - COTS List'!C59&amp;"|"&amp;'01 - COTS List'!D59&amp;"|"&amp;'01 - COTS List'!E59&amp;"|"&amp;'01 - COTS List'!F59&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B72="","","|**"&amp;'01 - COTS List'!B72&amp;"**|"&amp;'01 - COTS List'!C72&amp;"|"&amp;'01 - COTS List'!D72&amp;"|"&amp;'01 - COTS List'!E72&amp;"|"&amp;'01 - COTS List'!F72&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
       <c r="B60" s="10" t="str">
-        <f>IF('01 - COTS List'!B60="","","|**"&amp;'01 - COTS List'!B60&amp;"**|"&amp;'01 - COTS List'!C60&amp;"|"&amp;'01 - COTS List'!D60&amp;"|"&amp;'01 - COTS List'!E60&amp;"|"&amp;'01 - COTS List'!F60&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B73="","","|**"&amp;'01 - COTS List'!B73&amp;"**|"&amp;'01 - COTS List'!C73&amp;"|"&amp;'01 - COTS List'!D73&amp;"|"&amp;'01 - COTS List'!E73&amp;"|"&amp;'01 - COTS List'!F73&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
       <c r="B61" s="10" t="str">
-        <f>IF('01 - COTS List'!B61="","","|**"&amp;'01 - COTS List'!B61&amp;"**|"&amp;'01 - COTS List'!C61&amp;"|"&amp;'01 - COTS List'!D61&amp;"|"&amp;'01 - COTS List'!E61&amp;"|"&amp;'01 - COTS List'!F61&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B74="","","|**"&amp;'01 - COTS List'!B74&amp;"**|"&amp;'01 - COTS List'!C74&amp;"|"&amp;'01 - COTS List'!D74&amp;"|"&amp;'01 - COTS List'!E74&amp;"|"&amp;'01 - COTS List'!F74&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
       <c r="B62" s="10" t="str">
-        <f>IF('01 - COTS List'!B62="","","|**"&amp;'01 - COTS List'!B62&amp;"**|"&amp;'01 - COTS List'!C62&amp;"|"&amp;'01 - COTS List'!D62&amp;"|"&amp;'01 - COTS List'!E62&amp;"|"&amp;'01 - COTS List'!F62&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B75="","","|**"&amp;'01 - COTS List'!B75&amp;"**|"&amp;'01 - COTS List'!C75&amp;"|"&amp;'01 - COTS List'!D75&amp;"|"&amp;'01 - COTS List'!E75&amp;"|"&amp;'01 - COTS List'!F75&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
       <c r="B63" s="10" t="str">
-        <f>IF('01 - COTS List'!B63="","","|**"&amp;'01 - COTS List'!B63&amp;"**|"&amp;'01 - COTS List'!C63&amp;"|"&amp;'01 - COTS List'!D63&amp;"|"&amp;'01 - COTS List'!E63&amp;"|"&amp;'01 - COTS List'!F63&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B76="","","|**"&amp;'01 - COTS List'!B76&amp;"**|"&amp;'01 - COTS List'!C76&amp;"|"&amp;'01 - COTS List'!D76&amp;"|"&amp;'01 - COTS List'!E76&amp;"|"&amp;'01 - COTS List'!F76&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
       <c r="B64" s="10" t="str">
-        <f>IF('01 - COTS List'!B64="","","|**"&amp;'01 - COTS List'!B64&amp;"**|"&amp;'01 - COTS List'!C64&amp;"|"&amp;'01 - COTS List'!D64&amp;"|"&amp;'01 - COTS List'!E64&amp;"|"&amp;'01 - COTS List'!F64&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B77="","","|**"&amp;'01 - COTS List'!B77&amp;"**|"&amp;'01 - COTS List'!C77&amp;"|"&amp;'01 - COTS List'!D77&amp;"|"&amp;'01 - COTS List'!E77&amp;"|"&amp;'01 - COTS List'!F77&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
       <c r="B65" s="10" t="str">
-        <f>IF('01 - COTS List'!B65="","","|**"&amp;'01 - COTS List'!B65&amp;"**|"&amp;'01 - COTS List'!C65&amp;"|"&amp;'01 - COTS List'!D65&amp;"|"&amp;'01 - COTS List'!E65&amp;"|"&amp;'01 - COTS List'!F65&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B78="","","|**"&amp;'01 - COTS List'!B78&amp;"**|"&amp;'01 - COTS List'!C78&amp;"|"&amp;'01 - COTS List'!D78&amp;"|"&amp;'01 - COTS List'!E78&amp;"|"&amp;'01 - COTS List'!F78&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
       <c r="B66" s="10" t="str">
-        <f>IF('01 - COTS List'!B66="","","|**"&amp;'01 - COTS List'!B66&amp;"**|"&amp;'01 - COTS List'!C66&amp;"|"&amp;'01 - COTS List'!D66&amp;"|"&amp;'01 - COTS List'!E66&amp;"|"&amp;'01 - COTS List'!F66&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B79="","","|**"&amp;'01 - COTS List'!B79&amp;"**|"&amp;'01 - COTS List'!C79&amp;"|"&amp;'01 - COTS List'!D79&amp;"|"&amp;'01 - COTS List'!E79&amp;"|"&amp;'01 - COTS List'!F79&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
       <c r="B67" s="10" t="str">
-        <f>IF('01 - COTS List'!B67="","","|**"&amp;'01 - COTS List'!B67&amp;"**|"&amp;'01 - COTS List'!C67&amp;"|"&amp;'01 - COTS List'!D67&amp;"|"&amp;'01 - COTS List'!E67&amp;"|"&amp;'01 - COTS List'!F67&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B80="","","|**"&amp;'01 - COTS List'!B80&amp;"**|"&amp;'01 - COTS List'!C80&amp;"|"&amp;'01 - COTS List'!D80&amp;"|"&amp;'01 - COTS List'!E80&amp;"|"&amp;'01 - COTS List'!F80&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
       <c r="B68" s="10" t="str">
-        <f>IF('01 - COTS List'!B68="","","|**"&amp;'01 - COTS List'!B68&amp;"**|"&amp;'01 - COTS List'!C68&amp;"|"&amp;'01 - COTS List'!D68&amp;"|"&amp;'01 - COTS List'!E68&amp;"|"&amp;'01 - COTS List'!F68&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B81="","","|**"&amp;'01 - COTS List'!B81&amp;"**|"&amp;'01 - COTS List'!C81&amp;"|"&amp;'01 - COTS List'!D81&amp;"|"&amp;'01 - COTS List'!E81&amp;"|"&amp;'01 - COTS List'!F81&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
       <c r="B69" s="10" t="str">
-        <f>IF('01 - COTS List'!B69="","","|**"&amp;'01 - COTS List'!B69&amp;"**|"&amp;'01 - COTS List'!C69&amp;"|"&amp;'01 - COTS List'!D69&amp;"|"&amp;'01 - COTS List'!E69&amp;"|"&amp;'01 - COTS List'!F69&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B82="","","|**"&amp;'01 - COTS List'!B82&amp;"**|"&amp;'01 - COTS List'!C82&amp;"|"&amp;'01 - COTS List'!D82&amp;"|"&amp;'01 - COTS List'!E82&amp;"|"&amp;'01 - COTS List'!F82&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
       <c r="B70" s="10" t="str">
-        <f>IF('01 - COTS List'!B70="","","|**"&amp;'01 - COTS List'!B70&amp;"**|"&amp;'01 - COTS List'!C70&amp;"|"&amp;'01 - COTS List'!D70&amp;"|"&amp;'01 - COTS List'!E70&amp;"|"&amp;'01 - COTS List'!F70&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B83="","","|**"&amp;'01 - COTS List'!B83&amp;"**|"&amp;'01 - COTS List'!C83&amp;"|"&amp;'01 - COTS List'!D83&amp;"|"&amp;'01 - COTS List'!E83&amp;"|"&amp;'01 - COTS List'!F83&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
       <c r="B71" s="10" t="str">
-        <f>IF('01 - COTS List'!B71="","","|**"&amp;'01 - COTS List'!B71&amp;"**|"&amp;'01 - COTS List'!C71&amp;"|"&amp;'01 - COTS List'!D71&amp;"|"&amp;'01 - COTS List'!E71&amp;"|"&amp;'01 - COTS List'!F71&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B84="","","|**"&amp;'01 - COTS List'!B84&amp;"**|"&amp;'01 - COTS List'!C84&amp;"|"&amp;'01 - COTS List'!D84&amp;"|"&amp;'01 - COTS List'!E84&amp;"|"&amp;'01 - COTS List'!F84&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
       <c r="B72" s="10" t="str">
-        <f>IF('01 - COTS List'!B72="","","|**"&amp;'01 - COTS List'!B72&amp;"**|"&amp;'01 - COTS List'!C72&amp;"|"&amp;'01 - COTS List'!D72&amp;"|"&amp;'01 - COTS List'!E72&amp;"|"&amp;'01 - COTS List'!F72&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B85="","","|**"&amp;'01 - COTS List'!B85&amp;"**|"&amp;'01 - COTS List'!C85&amp;"|"&amp;'01 - COTS List'!D85&amp;"|"&amp;'01 - COTS List'!E85&amp;"|"&amp;'01 - COTS List'!F85&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
       <c r="B73" s="10" t="str">
-        <f>IF('01 - COTS List'!B73="","","|**"&amp;'01 - COTS List'!B73&amp;"**|"&amp;'01 - COTS List'!C73&amp;"|"&amp;'01 - COTS List'!D73&amp;"|"&amp;'01 - COTS List'!E73&amp;"|"&amp;'01 - COTS List'!F73&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B86="","","|**"&amp;'01 - COTS List'!B86&amp;"**|"&amp;'01 - COTS List'!C86&amp;"|"&amp;'01 - COTS List'!D86&amp;"|"&amp;'01 - COTS List'!E86&amp;"|"&amp;'01 - COTS List'!F86&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
       <c r="B74" s="10" t="str">
-        <f>IF('01 - COTS List'!B74="","","|**"&amp;'01 - COTS List'!B74&amp;"**|"&amp;'01 - COTS List'!C74&amp;"|"&amp;'01 - COTS List'!D74&amp;"|"&amp;'01 - COTS List'!E74&amp;"|"&amp;'01 - COTS List'!F74&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B87="","","|**"&amp;'01 - COTS List'!B87&amp;"**|"&amp;'01 - COTS List'!C87&amp;"|"&amp;'01 - COTS List'!D87&amp;"|"&amp;'01 - COTS List'!E87&amp;"|"&amp;'01 - COTS List'!F87&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
       <c r="B75" s="10" t="str">
-        <f>IF('01 - COTS List'!B75="","","|**"&amp;'01 - COTS List'!B75&amp;"**|"&amp;'01 - COTS List'!C75&amp;"|"&amp;'01 - COTS List'!D75&amp;"|"&amp;'01 - COTS List'!E75&amp;"|"&amp;'01 - COTS List'!F75&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B88="","","|**"&amp;'01 - COTS List'!B88&amp;"**|"&amp;'01 - COTS List'!C88&amp;"|"&amp;'01 - COTS List'!D88&amp;"|"&amp;'01 - COTS List'!E88&amp;"|"&amp;'01 - COTS List'!F88&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
       <c r="B76" s="10" t="str">
-        <f>IF('01 - COTS List'!B76="","","|**"&amp;'01 - COTS List'!B76&amp;"**|"&amp;'01 - COTS List'!C76&amp;"|"&amp;'01 - COTS List'!D76&amp;"|"&amp;'01 - COTS List'!E76&amp;"|"&amp;'01 - COTS List'!F76&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B89="","","|**"&amp;'01 - COTS List'!B89&amp;"**|"&amp;'01 - COTS List'!C89&amp;"|"&amp;'01 - COTS List'!D89&amp;"|"&amp;'01 - COTS List'!E89&amp;"|"&amp;'01 - COTS List'!F89&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
       <c r="B77" s="10" t="str">
-        <f>IF('01 - COTS List'!B77="","","|**"&amp;'01 - COTS List'!B77&amp;"**|"&amp;'01 - COTS List'!C77&amp;"|"&amp;'01 - COTS List'!D77&amp;"|"&amp;'01 - COTS List'!E77&amp;"|"&amp;'01 - COTS List'!F77&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B90="","","|**"&amp;'01 - COTS List'!B90&amp;"**|"&amp;'01 - COTS List'!C90&amp;"|"&amp;'01 - COTS List'!D90&amp;"|"&amp;'01 - COTS List'!E90&amp;"|"&amp;'01 - COTS List'!F90&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
       <c r="B78" s="10" t="str">
-        <f>IF('01 - COTS List'!B78="","","|**"&amp;'01 - COTS List'!B78&amp;"**|"&amp;'01 - COTS List'!C78&amp;"|"&amp;'01 - COTS List'!D78&amp;"|"&amp;'01 - COTS List'!E78&amp;"|"&amp;'01 - COTS List'!F78&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B91="","","|**"&amp;'01 - COTS List'!B91&amp;"**|"&amp;'01 - COTS List'!C91&amp;"|"&amp;'01 - COTS List'!D91&amp;"|"&amp;'01 - COTS List'!E91&amp;"|"&amp;'01 - COTS List'!F91&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
       <c r="B79" s="10" t="str">
-        <f>IF('01 - COTS List'!B79="","","|**"&amp;'01 - COTS List'!B79&amp;"**|"&amp;'01 - COTS List'!C79&amp;"|"&amp;'01 - COTS List'!D79&amp;"|"&amp;'01 - COTS List'!E79&amp;"|"&amp;'01 - COTS List'!F79&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B92="","","|**"&amp;'01 - COTS List'!B92&amp;"**|"&amp;'01 - COTS List'!C92&amp;"|"&amp;'01 - COTS List'!D92&amp;"|"&amp;'01 - COTS List'!E92&amp;"|"&amp;'01 - COTS List'!F92&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
       <c r="B80" s="10" t="str">
-        <f>IF('01 - COTS List'!B80="","","|**"&amp;'01 - COTS List'!B80&amp;"**|"&amp;'01 - COTS List'!C80&amp;"|"&amp;'01 - COTS List'!D80&amp;"|"&amp;'01 - COTS List'!E80&amp;"|"&amp;'01 - COTS List'!F80&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B93="","","|**"&amp;'01 - COTS List'!B93&amp;"**|"&amp;'01 - COTS List'!C93&amp;"|"&amp;'01 - COTS List'!D93&amp;"|"&amp;'01 - COTS List'!E93&amp;"|"&amp;'01 - COTS List'!F93&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
       <c r="B81" s="10" t="str">
-        <f>IF('01 - COTS List'!B81="","","|**"&amp;'01 - COTS List'!B81&amp;"**|"&amp;'01 - COTS List'!C81&amp;"|"&amp;'01 - COTS List'!D81&amp;"|"&amp;'01 - COTS List'!E81&amp;"|"&amp;'01 - COTS List'!F81&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B94="","","|**"&amp;'01 - COTS List'!B94&amp;"**|"&amp;'01 - COTS List'!C94&amp;"|"&amp;'01 - COTS List'!D94&amp;"|"&amp;'01 - COTS List'!E94&amp;"|"&amp;'01 - COTS List'!F94&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
       <c r="B82" s="10" t="str">
-        <f>IF('01 - COTS List'!B82="","","|**"&amp;'01 - COTS List'!B82&amp;"**|"&amp;'01 - COTS List'!C82&amp;"|"&amp;'01 - COTS List'!D82&amp;"|"&amp;'01 - COTS List'!E82&amp;"|"&amp;'01 - COTS List'!F82&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B95="","","|**"&amp;'01 - COTS List'!B95&amp;"**|"&amp;'01 - COTS List'!C95&amp;"|"&amp;'01 - COTS List'!D95&amp;"|"&amp;'01 - COTS List'!E95&amp;"|"&amp;'01 - COTS List'!F95&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
       <c r="B83" s="10" t="str">
-        <f>IF('01 - COTS List'!B83="","","|**"&amp;'01 - COTS List'!B83&amp;"**|"&amp;'01 - COTS List'!C83&amp;"|"&amp;'01 - COTS List'!D83&amp;"|"&amp;'01 - COTS List'!E83&amp;"|"&amp;'01 - COTS List'!F83&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B96="","","|**"&amp;'01 - COTS List'!B96&amp;"**|"&amp;'01 - COTS List'!C96&amp;"|"&amp;'01 - COTS List'!D96&amp;"|"&amp;'01 - COTS List'!E96&amp;"|"&amp;'01 - COTS List'!F96&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
       <c r="B84" s="10" t="str">
-        <f>IF('01 - COTS List'!B84="","","|**"&amp;'01 - COTS List'!B84&amp;"**|"&amp;'01 - COTS List'!C84&amp;"|"&amp;'01 - COTS List'!D84&amp;"|"&amp;'01 - COTS List'!E84&amp;"|"&amp;'01 - COTS List'!F84&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B97="","","|**"&amp;'01 - COTS List'!B97&amp;"**|"&amp;'01 - COTS List'!C97&amp;"|"&amp;'01 - COTS List'!D97&amp;"|"&amp;'01 - COTS List'!E97&amp;"|"&amp;'01 - COTS List'!F97&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
       <c r="B85" s="10" t="str">
-        <f>IF('01 - COTS List'!B85="","","|**"&amp;'01 - COTS List'!B85&amp;"**|"&amp;'01 - COTS List'!C85&amp;"|"&amp;'01 - COTS List'!D85&amp;"|"&amp;'01 - COTS List'!E85&amp;"|"&amp;'01 - COTS List'!F85&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B98="","","|**"&amp;'01 - COTS List'!B98&amp;"**|"&amp;'01 - COTS List'!C98&amp;"|"&amp;'01 - COTS List'!D98&amp;"|"&amp;'01 - COTS List'!E98&amp;"|"&amp;'01 - COTS List'!F98&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
       <c r="B86" s="10" t="str">
-        <f>IF('01 - COTS List'!B86="","","|**"&amp;'01 - COTS List'!B86&amp;"**|"&amp;'01 - COTS List'!C86&amp;"|"&amp;'01 - COTS List'!D86&amp;"|"&amp;'01 - COTS List'!E86&amp;"|"&amp;'01 - COTS List'!F86&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B99="","","|**"&amp;'01 - COTS List'!B99&amp;"**|"&amp;'01 - COTS List'!C99&amp;"|"&amp;'01 - COTS List'!D99&amp;"|"&amp;'01 - COTS List'!E99&amp;"|"&amp;'01 - COTS List'!F99&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
       <c r="B87" s="10" t="str">
-        <f>IF('01 - COTS List'!B87="","","|**"&amp;'01 - COTS List'!B87&amp;"**|"&amp;'01 - COTS List'!C87&amp;"|"&amp;'01 - COTS List'!D87&amp;"|"&amp;'01 - COTS List'!E87&amp;"|"&amp;'01 - COTS List'!F87&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B100="","","|**"&amp;'01 - COTS List'!B100&amp;"**|"&amp;'01 - COTS List'!C100&amp;"|"&amp;'01 - COTS List'!D100&amp;"|"&amp;'01 - COTS List'!E100&amp;"|"&amp;'01 - COTS List'!F100&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
       <c r="B88" s="10" t="str">
-        <f>IF('01 - COTS List'!B88="","","|**"&amp;'01 - COTS List'!B88&amp;"**|"&amp;'01 - COTS List'!C88&amp;"|"&amp;'01 - COTS List'!D88&amp;"|"&amp;'01 - COTS List'!E88&amp;"|"&amp;'01 - COTS List'!F88&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B101="","","|**"&amp;'01 - COTS List'!B101&amp;"**|"&amp;'01 - COTS List'!C101&amp;"|"&amp;'01 - COTS List'!D101&amp;"|"&amp;'01 - COTS List'!E101&amp;"|"&amp;'01 - COTS List'!F101&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
       <c r="B89" s="10" t="str">
-        <f>IF('01 - COTS List'!B89="","","|**"&amp;'01 - COTS List'!B89&amp;"**|"&amp;'01 - COTS List'!C89&amp;"|"&amp;'01 - COTS List'!D89&amp;"|"&amp;'01 - COTS List'!E89&amp;"|"&amp;'01 - COTS List'!F89&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B102="","","|**"&amp;'01 - COTS List'!B102&amp;"**|"&amp;'01 - COTS List'!C102&amp;"|"&amp;'01 - COTS List'!D102&amp;"|"&amp;'01 - COTS List'!E102&amp;"|"&amp;'01 - COTS List'!F102&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
       <c r="B90" s="10" t="str">
-        <f>IF('01 - COTS List'!B90="","","|**"&amp;'01 - COTS List'!B90&amp;"**|"&amp;'01 - COTS List'!C90&amp;"|"&amp;'01 - COTS List'!D90&amp;"|"&amp;'01 - COTS List'!E90&amp;"|"&amp;'01 - COTS List'!F90&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B103="","","|**"&amp;'01 - COTS List'!B103&amp;"**|"&amp;'01 - COTS List'!C103&amp;"|"&amp;'01 - COTS List'!D103&amp;"|"&amp;'01 - COTS List'!E103&amp;"|"&amp;'01 - COTS List'!F103&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
       <c r="B91" s="10" t="str">
-        <f>IF('01 - COTS List'!B91="","","|**"&amp;'01 - COTS List'!B91&amp;"**|"&amp;'01 - COTS List'!C91&amp;"|"&amp;'01 - COTS List'!D91&amp;"|"&amp;'01 - COTS List'!E91&amp;"|"&amp;'01 - COTS List'!F91&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B104="","","|**"&amp;'01 - COTS List'!B104&amp;"**|"&amp;'01 - COTS List'!C104&amp;"|"&amp;'01 - COTS List'!D104&amp;"|"&amp;'01 - COTS List'!E104&amp;"|"&amp;'01 - COTS List'!F104&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
       <c r="B92" s="10" t="str">
-        <f>IF('01 - COTS List'!B92="","","|**"&amp;'01 - COTS List'!B92&amp;"**|"&amp;'01 - COTS List'!C92&amp;"|"&amp;'01 - COTS List'!D92&amp;"|"&amp;'01 - COTS List'!E92&amp;"|"&amp;'01 - COTS List'!F92&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B105="","","|**"&amp;'01 - COTS List'!B105&amp;"**|"&amp;'01 - COTS List'!C105&amp;"|"&amp;'01 - COTS List'!D105&amp;"|"&amp;'01 - COTS List'!E105&amp;"|"&amp;'01 - COTS List'!F105&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
       <c r="B93" s="10" t="str">
-        <f>IF('01 - COTS List'!B93="","","|**"&amp;'01 - COTS List'!B93&amp;"**|"&amp;'01 - COTS List'!C93&amp;"|"&amp;'01 - COTS List'!D93&amp;"|"&amp;'01 - COTS List'!E93&amp;"|"&amp;'01 - COTS List'!F93&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B106="","","|**"&amp;'01 - COTS List'!B106&amp;"**|"&amp;'01 - COTS List'!C106&amp;"|"&amp;'01 - COTS List'!D106&amp;"|"&amp;'01 - COTS List'!E106&amp;"|"&amp;'01 - COTS List'!F106&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
       <c r="B94" s="10" t="str">
-        <f>IF('01 - COTS List'!B94="","","|**"&amp;'01 - COTS List'!B94&amp;"**|"&amp;'01 - COTS List'!C94&amp;"|"&amp;'01 - COTS List'!D94&amp;"|"&amp;'01 - COTS List'!E94&amp;"|"&amp;'01 - COTS List'!F94&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B107="","","|**"&amp;'01 - COTS List'!B107&amp;"**|"&amp;'01 - COTS List'!C107&amp;"|"&amp;'01 - COTS List'!D107&amp;"|"&amp;'01 - COTS List'!E107&amp;"|"&amp;'01 - COTS List'!F107&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
       <c r="B95" s="10" t="str">
-        <f>IF('01 - COTS List'!B95="","","|**"&amp;'01 - COTS List'!B95&amp;"**|"&amp;'01 - COTS List'!C95&amp;"|"&amp;'01 - COTS List'!D95&amp;"|"&amp;'01 - COTS List'!E95&amp;"|"&amp;'01 - COTS List'!F95&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B108="","","|**"&amp;'01 - COTS List'!B108&amp;"**|"&amp;'01 - COTS List'!C108&amp;"|"&amp;'01 - COTS List'!D108&amp;"|"&amp;'01 - COTS List'!E108&amp;"|"&amp;'01 - COTS List'!F108&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
       <c r="B96" s="10" t="str">
-        <f>IF('01 - COTS List'!B96="","","|**"&amp;'01 - COTS List'!B96&amp;"**|"&amp;'01 - COTS List'!C96&amp;"|"&amp;'01 - COTS List'!D96&amp;"|"&amp;'01 - COTS List'!E96&amp;"|"&amp;'01 - COTS List'!F96&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B109="","","|**"&amp;'01 - COTS List'!B109&amp;"**|"&amp;'01 - COTS List'!C109&amp;"|"&amp;'01 - COTS List'!D109&amp;"|"&amp;'01 - COTS List'!E109&amp;"|"&amp;'01 - COTS List'!F109&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
       <c r="B97" s="10" t="str">
-        <f>IF('01 - COTS List'!B97="","","|**"&amp;'01 - COTS List'!B97&amp;"**|"&amp;'01 - COTS List'!C97&amp;"|"&amp;'01 - COTS List'!D97&amp;"|"&amp;'01 - COTS List'!E97&amp;"|"&amp;'01 - COTS List'!F97&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B110="","","|**"&amp;'01 - COTS List'!B110&amp;"**|"&amp;'01 - COTS List'!C110&amp;"|"&amp;'01 - COTS List'!D110&amp;"|"&amp;'01 - COTS List'!E110&amp;"|"&amp;'01 - COTS List'!F110&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
       <c r="B98" s="10" t="str">
-        <f>IF('01 - COTS List'!B98="","","|**"&amp;'01 - COTS List'!B98&amp;"**|"&amp;'01 - COTS List'!C98&amp;"|"&amp;'01 - COTS List'!D98&amp;"|"&amp;'01 - COTS List'!E98&amp;"|"&amp;'01 - COTS List'!F98&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B111="","","|**"&amp;'01 - COTS List'!B111&amp;"**|"&amp;'01 - COTS List'!C111&amp;"|"&amp;'01 - COTS List'!D111&amp;"|"&amp;'01 - COTS List'!E111&amp;"|"&amp;'01 - COTS List'!F111&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
       <c r="B99" s="10" t="str">
-        <f>IF('01 - COTS List'!B99="","","|**"&amp;'01 - COTS List'!B99&amp;"**|"&amp;'01 - COTS List'!C99&amp;"|"&amp;'01 - COTS List'!D99&amp;"|"&amp;'01 - COTS List'!E99&amp;"|"&amp;'01 - COTS List'!F99&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B112="","","|**"&amp;'01 - COTS List'!B112&amp;"**|"&amp;'01 - COTS List'!C112&amp;"|"&amp;'01 - COTS List'!D112&amp;"|"&amp;'01 - COTS List'!E112&amp;"|"&amp;'01 - COTS List'!F112&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" s="10" t="str">
-        <f>IF('01 - COTS List'!B100="","","|**"&amp;'01 - COTS List'!B100&amp;"**|"&amp;'01 - COTS List'!C100&amp;"|"&amp;'01 - COTS List'!D100&amp;"|"&amp;'01 - COTS List'!E100&amp;"|"&amp;'01 - COTS List'!F100&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B113="","","|**"&amp;'01 - COTS List'!B113&amp;"**|"&amp;'01 - COTS List'!C113&amp;"|"&amp;'01 - COTS List'!D113&amp;"|"&amp;'01 - COTS List'!E113&amp;"|"&amp;'01 - COTS List'!F113&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
       <c r="B101" s="10" t="str">
-        <f>IF('01 - COTS List'!B101="","","|**"&amp;'01 - COTS List'!B101&amp;"**|"&amp;'01 - COTS List'!C101&amp;"|"&amp;'01 - COTS List'!D101&amp;"|"&amp;'01 - COTS List'!E101&amp;"|"&amp;'01 - COTS List'!F101&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B114="","","|**"&amp;'01 - COTS List'!B114&amp;"**|"&amp;'01 - COTS List'!C114&amp;"|"&amp;'01 - COTS List'!D114&amp;"|"&amp;'01 - COTS List'!E114&amp;"|"&amp;'01 - COTS List'!F114&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
       <c r="B102" s="10" t="str">
-        <f>IF('01 - COTS List'!B102="","","|**"&amp;'01 - COTS List'!B102&amp;"**|"&amp;'01 - COTS List'!C102&amp;"|"&amp;'01 - COTS List'!D102&amp;"|"&amp;'01 - COTS List'!E102&amp;"|"&amp;'01 - COTS List'!F102&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B115="","","|**"&amp;'01 - COTS List'!B115&amp;"**|"&amp;'01 - COTS List'!C115&amp;"|"&amp;'01 - COTS List'!D115&amp;"|"&amp;'01 - COTS List'!E115&amp;"|"&amp;'01 - COTS List'!F115&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
       <c r="B103" s="10" t="str">
-        <f>IF('01 - COTS List'!B103="","","|**"&amp;'01 - COTS List'!B103&amp;"**|"&amp;'01 - COTS List'!C103&amp;"|"&amp;'01 - COTS List'!D103&amp;"|"&amp;'01 - COTS List'!E103&amp;"|"&amp;'01 - COTS List'!F103&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B116="","","|**"&amp;'01 - COTS List'!B116&amp;"**|"&amp;'01 - COTS List'!C116&amp;"|"&amp;'01 - COTS List'!D116&amp;"|"&amp;'01 - COTS List'!E116&amp;"|"&amp;'01 - COTS List'!F116&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
       <c r="B104" s="10" t="str">
-        <f>IF('01 - COTS List'!B104="","","|**"&amp;'01 - COTS List'!B104&amp;"**|"&amp;'01 - COTS List'!C104&amp;"|"&amp;'01 - COTS List'!D104&amp;"|"&amp;'01 - COTS List'!E104&amp;"|"&amp;'01 - COTS List'!F104&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B117="","","|**"&amp;'01 - COTS List'!B117&amp;"**|"&amp;'01 - COTS List'!C117&amp;"|"&amp;'01 - COTS List'!D117&amp;"|"&amp;'01 - COTS List'!E117&amp;"|"&amp;'01 - COTS List'!F117&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
       <c r="B105" s="10" t="str">
-        <f>IF('01 - COTS List'!B105="","","|**"&amp;'01 - COTS List'!B105&amp;"**|"&amp;'01 - COTS List'!C105&amp;"|"&amp;'01 - COTS List'!D105&amp;"|"&amp;'01 - COTS List'!E105&amp;"|"&amp;'01 - COTS List'!F105&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B118="","","|**"&amp;'01 - COTS List'!B118&amp;"**|"&amp;'01 - COTS List'!C118&amp;"|"&amp;'01 - COTS List'!D118&amp;"|"&amp;'01 - COTS List'!E118&amp;"|"&amp;'01 - COTS List'!F118&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
       <c r="B106" s="10" t="str">
-        <f>IF('01 - COTS List'!B106="","","|**"&amp;'01 - COTS List'!B106&amp;"**|"&amp;'01 - COTS List'!C106&amp;"|"&amp;'01 - COTS List'!D106&amp;"|"&amp;'01 - COTS List'!E106&amp;"|"&amp;'01 - COTS List'!F106&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B119="","","|**"&amp;'01 - COTS List'!B119&amp;"**|"&amp;'01 - COTS List'!C119&amp;"|"&amp;'01 - COTS List'!D119&amp;"|"&amp;'01 - COTS List'!E119&amp;"|"&amp;'01 - COTS List'!F119&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
       <c r="B107" s="10" t="str">
-        <f>IF('01 - COTS List'!B107="","","|**"&amp;'01 - COTS List'!B107&amp;"**|"&amp;'01 - COTS List'!C107&amp;"|"&amp;'01 - COTS List'!D107&amp;"|"&amp;'01 - COTS List'!E107&amp;"|"&amp;'01 - COTS List'!F107&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B120="","","|**"&amp;'01 - COTS List'!B120&amp;"**|"&amp;'01 - COTS List'!C120&amp;"|"&amp;'01 - COTS List'!D120&amp;"|"&amp;'01 - COTS List'!E120&amp;"|"&amp;'01 - COTS List'!F120&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
       <c r="B108" s="10" t="str">
-        <f>IF('01 - COTS List'!B108="","","|**"&amp;'01 - COTS List'!B108&amp;"**|"&amp;'01 - COTS List'!C108&amp;"|"&amp;'01 - COTS List'!D108&amp;"|"&amp;'01 - COTS List'!E108&amp;"|"&amp;'01 - COTS List'!F108&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IF('01 - COTS List'!B121="","","|**"&amp;'01 - COTS List'!B121&amp;"**|"&amp;'01 - COTS List'!C121&amp;"|"&amp;'01 - COTS List'!D121&amp;"|"&amp;'01 - COTS List'!E121&amp;"|"&amp;'01 - COTS List'!F121&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
       <c r="B109" s="10" t="str">
-        <f>IF('01 - COTS List'!B109="","","|**"&amp;'01 - COTS List'!B109&amp;"**|"&amp;'01 - COTS List'!C109&amp;"|"&amp;'01 - COTS List'!D109&amp;"|"&amp;'01 - COTS List'!E109&amp;"|"&amp;'01 - COTS List'!F109&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="10" t="str">
-        <f>IF('01 - COTS List'!B110="","","|**"&amp;'01 - COTS List'!B110&amp;"**|"&amp;'01 - COTS List'!C110&amp;"|"&amp;'01 - COTS List'!D110&amp;"|"&amp;'01 - COTS List'!E110&amp;"|"&amp;'01 - COTS List'!F110&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="10" t="str">
-        <f>IF('01 - COTS List'!B111="","","|**"&amp;'01 - COTS List'!B111&amp;"**|"&amp;'01 - COTS List'!C111&amp;"|"&amp;'01 - COTS List'!D111&amp;"|"&amp;'01 - COTS List'!E111&amp;"|"&amp;'01 - COTS List'!F111&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="10" t="str">
-        <f>IF('01 - COTS List'!B112="","","|**"&amp;'01 - COTS List'!B112&amp;"**|"&amp;'01 - COTS List'!C112&amp;"|"&amp;'01 - COTS List'!D112&amp;"|"&amp;'01 - COTS List'!E112&amp;"|"&amp;'01 - COTS List'!F112&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="10" t="str">
-        <f>IF('01 - COTS List'!B113="","","|**"&amp;'01 - COTS List'!B113&amp;"**|"&amp;'01 - COTS List'!C113&amp;"|"&amp;'01 - COTS List'!D113&amp;"|"&amp;'01 - COTS List'!E113&amp;"|"&amp;'01 - COTS List'!F113&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="10" t="str">
-        <f>IF('01 - COTS List'!B114="","","|**"&amp;'01 - COTS List'!B114&amp;"**|"&amp;'01 - COTS List'!C114&amp;"|"&amp;'01 - COTS List'!D114&amp;"|"&amp;'01 - COTS List'!E114&amp;"|"&amp;'01 - COTS List'!F114&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="10" t="str">
-        <f>IF('01 - COTS List'!B115="","","|**"&amp;'01 - COTS List'!B115&amp;"**|"&amp;'01 - COTS List'!C115&amp;"|"&amp;'01 - COTS List'!D115&amp;"|"&amp;'01 - COTS List'!E115&amp;"|"&amp;'01 - COTS List'!F115&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="10" t="str">
-        <f>IF('01 - COTS List'!B116="","","|**"&amp;'01 - COTS List'!B116&amp;"**|"&amp;'01 - COTS List'!C116&amp;"|"&amp;'01 - COTS List'!D116&amp;"|"&amp;'01 - COTS List'!E116&amp;"|"&amp;'01 - COTS List'!F116&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="10" t="str">
-        <f>IF('01 - COTS List'!B117="","","|**"&amp;'01 - COTS List'!B117&amp;"**|"&amp;'01 - COTS List'!C117&amp;"|"&amp;'01 - COTS List'!D117&amp;"|"&amp;'01 - COTS List'!E117&amp;"|"&amp;'01 - COTS List'!F117&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="10" t="str">
-        <f>IF('01 - COTS List'!B118="","","|**"&amp;'01 - COTS List'!B118&amp;"**|"&amp;'01 - COTS List'!C118&amp;"|"&amp;'01 - COTS List'!D118&amp;"|"&amp;'01 - COTS List'!E118&amp;"|"&amp;'01 - COTS List'!F118&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="10" t="str">
-        <f>IF('01 - COTS List'!B119="","","|**"&amp;'01 - COTS List'!B119&amp;"**|"&amp;'01 - COTS List'!C119&amp;"|"&amp;'01 - COTS List'!D119&amp;"|"&amp;'01 - COTS List'!E119&amp;"|"&amp;'01 - COTS List'!F119&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="10" t="str">
-        <f>IF('01 - COTS List'!B120="","","|**"&amp;'01 - COTS List'!B120&amp;"**|"&amp;'01 - COTS List'!C120&amp;"|"&amp;'01 - COTS List'!D120&amp;"|"&amp;'01 - COTS List'!E120&amp;"|"&amp;'01 - COTS List'!F120&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="10" t="str">
-        <f>IF('01 - COTS List'!B121="","","|**"&amp;'01 - COTS List'!B121&amp;"**|"&amp;'01 - COTS List'!C121&amp;"|"&amp;'01 - COTS List'!D121&amp;"|"&amp;'01 - COTS List'!E121&amp;"|"&amp;'01 - COTS List'!F121&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="10" t="str">
         <f>IF('01 - COTS List'!B122="","","|**"&amp;'01 - COTS List'!B122&amp;"**|"&amp;'01 - COTS List'!C122&amp;"|"&amp;'01 - COTS List'!D122&amp;"|"&amp;'01 - COTS List'!E122&amp;"|"&amp;'01 - COTS List'!F122&amp;"|")</f>
         <v/>
       </c>

--- a/01.byd-DataFactory/1.ArchitectureDossier/artifacts/02.cots-list/BYD-DF_COTSLists_v01.00.xlsx
+++ b/01.byd-DataFactory/1.ArchitectureDossier/artifacts/02.cots-list/BYD-DF_COTSLists_v01.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavierwuelche/Documents/Projet/byd-all-documentation/01.byd-DataFactory/1.ArchitectureDossier/artifacts/02.cots-list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179CE4FD-81FE-2242-9B4D-101E6CBB1858}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50505BFC-5635-7F42-85A1-D7CA72E7567A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01 - COTS List" sheetId="5" r:id="rId1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>Description</t>
   </si>
@@ -428,13 +428,28 @@
   </si>
   <si>
     <t>PostGIS is a spatial database extender for PostgreSQL object-relational database. It adds support for geographic objects allowing location queries to be run in SQL.</t>
+  </si>
+  <si>
+    <t>dotenv</t>
+  </si>
+  <si>
+    <t>6.*.*</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/dotenv</t>
+  </si>
+  <si>
+    <t>BSD-2-Clause</t>
+  </si>
+  <si>
+    <t>Dotenv is a zero-dependency module that loads environment variables from a .env file into process.env</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,8 +608,15 @@
       <color theme="1"/>
       <name val="IBM Plex Sans"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,6 +644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -730,7 +758,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -822,7 +850,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -834,6 +861,16 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1231,9 +1268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1288,7 @@
     <row r="1" spans="1:9" s="1" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="str">
         <f>"COTS List - ("&amp;COUNTA(B5:B85)&amp;" Registered)"</f>
-        <v>COTS List - (21 Registered)</v>
+        <v>COTS List - (22 Registered)</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1392,23 +1429,23 @@
     </row>
     <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>12</v>
+      <c r="B10" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="30"/>
@@ -1416,61 +1453,61 @@
     <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="B12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>42</v>
+      <c r="F12" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>23</v>
@@ -1479,80 +1516,80 @@
     <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="B16" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="F16" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="23" t="s">
+      <c r="B17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>54</v>
+      <c r="F17" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>23</v>
@@ -1561,19 +1598,19 @@
     <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>23</v>
@@ -1582,156 +1619,168 @@
     <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>78</v>
+      <c r="B20" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="34" t="s">
+      <c r="B21" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>68</v>
+      <c r="B22" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="B23" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>67</v>
+      <c r="F23" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="21" t="s">
+      <c r="B24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="23"/>
+      <c r="F24" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F26" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G26" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
@@ -2266,32 +2315,33 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:G4" xr:uid="{6F078BB8-EA6E-4A4D-86BD-D9856AE56810}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G25">
-      <sortCondition ref="B4:B25"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G26">
+      <sortCondition ref="B4:B26"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" xr:uid="{0B6F9ADC-EE7B-CD42-961D-67F77CDF8C1A}"/>
+    <hyperlink ref="D17" r:id="rId1" xr:uid="{0B6F9ADC-EE7B-CD42-961D-67F77CDF8C1A}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{8E5EB032-728D-704B-B5F0-FAC8C55BFE10}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{5221DADD-7AC0-EB4F-A2A7-306F868E3FA1}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{38489070-47F8-F941-A8B1-76D8B375DD92}"/>
-    <hyperlink ref="D12" r:id="rId5" xr:uid="{E65F263A-3188-894D-BA69-E261EE620918}"/>
-    <hyperlink ref="D13" r:id="rId6" xr:uid="{F1544DFD-8672-1C4E-BBD4-3487CA54023F}"/>
-    <hyperlink ref="D14" r:id="rId7" xr:uid="{7A00F97D-130C-5743-A124-269AFEA6396D}"/>
-    <hyperlink ref="D17" r:id="rId8" xr:uid="{85EFFB62-480B-E341-A456-51C6C3B16B94}"/>
-    <hyperlink ref="D18" r:id="rId9" xr:uid="{BEBCF35C-4E7D-3C49-AE74-13F94B34BBC1}"/>
-    <hyperlink ref="D19" r:id="rId10" xr:uid="{C7770802-A95F-8C42-A292-70FA7C3C5319}"/>
-    <hyperlink ref="D22" r:id="rId11" xr:uid="{4415E758-7CEB-874F-AE4A-C6C3ADF74690}"/>
-    <hyperlink ref="D25" r:id="rId12" xr:uid="{53E0A9A6-CA1E-184D-809C-F59EC256D5C5}"/>
+    <hyperlink ref="D13" r:id="rId5" xr:uid="{E65F263A-3188-894D-BA69-E261EE620918}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{F1544DFD-8672-1C4E-BBD4-3487CA54023F}"/>
+    <hyperlink ref="D15" r:id="rId7" xr:uid="{7A00F97D-130C-5743-A124-269AFEA6396D}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{85EFFB62-480B-E341-A456-51C6C3B16B94}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{BEBCF35C-4E7D-3C49-AE74-13F94B34BBC1}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{C7770802-A95F-8C42-A292-70FA7C3C5319}"/>
+    <hyperlink ref="D23" r:id="rId11" xr:uid="{4415E758-7CEB-874F-AE4A-C6C3ADF74690}"/>
+    <hyperlink ref="D26" r:id="rId12" xr:uid="{53E0A9A6-CA1E-184D-809C-F59EC256D5C5}"/>
     <hyperlink ref="D8" r:id="rId13" xr:uid="{FCF5A9D5-945D-8445-A61E-5BCEB328BDE4}"/>
-    <hyperlink ref="D24" r:id="rId14" xr:uid="{34CF9B78-6FF2-834C-8BF0-B88C37A72689}"/>
-    <hyperlink ref="D21" r:id="rId15" xr:uid="{9498ACDE-D79A-794C-B5F1-41EA1C52D72C}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{02600190-F3FB-FA45-9502-0B47CDBA9722}"/>
+    <hyperlink ref="D25" r:id="rId14" xr:uid="{34CF9B78-6FF2-834C-8BF0-B88C37A72689}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{9498ACDE-D79A-794C-B5F1-41EA1C52D72C}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{02600190-F3FB-FA45-9502-0B47CDBA9722}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{3D67F25E-459B-844A-8CA3-8A32D89D111C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
-  <drawing r:id="rId18"/>
-  <legacyDrawing r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <drawing r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -2299,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2366,103 +2416,103 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="str">
         <f>IF('01 - COTS List'!B10="","","|**"&amp;'01 - COTS List'!B10&amp;"**|"&amp;'01 - COTS List'!C10&amp;"|"&amp;'01 - COTS List'!D10&amp;"|"&amp;'01 - COTS List'!E10&amp;"|"&amp;'01 - COTS List'!F10&amp;"|")</f>
-        <v>|**express**|4.*.*|https://www.npmjs.com/package/express|MIT|Express.js, or simply Express, is a web application framework for Node.js, released as free and open-source software under the MIT License.|</v>
+        <v>|**dotenv**|6.*.*|https://www.npmjs.com/package/dotenv|BSD-2-Clause|Dotenv is a zero-dependency module that loads environment variables from a .env file into process.env|</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="str">
         <f>IF('01 - COTS List'!B11="","","|**"&amp;'01 - COTS List'!B11&amp;"**|"&amp;'01 - COTS List'!C11&amp;"|"&amp;'01 - COTS List'!D11&amp;"|"&amp;'01 - COTS List'!E11&amp;"|"&amp;'01 - COTS List'!F11&amp;"|")</f>
-        <v>|**helmet**|3.*.*|https://www.npmjs.com/package/helmet|MIT|Helmet helps you secure your Express apps by setting various HTTP headers.|</v>
+        <v>|**express**|4.*.*|https://www.npmjs.com/package/express|MIT|Express.js, or simply Express, is a web application framework for Node.js, released as free and open-source software under the MIT License.|</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="str">
         <f>IF('01 - COTS List'!B12="","","|**"&amp;'01 - COTS List'!B12&amp;"**|"&amp;'01 - COTS List'!C12&amp;"|"&amp;'01 - COTS List'!D12&amp;"|"&amp;'01 - COTS List'!E12&amp;"|"&amp;'01 - COTS List'!F12&amp;"|")</f>
-        <v>|**jwt-decode**|2.*.*|https://www.npmjs.com/package/jwt-decode|MIT|jwt-decode is a small browser library that helps decoding JWTs token which are Base64Url encoded.|</v>
+        <v>|**helmet**|3.*.*|https://www.npmjs.com/package/helmet|MIT|Helmet helps you secure your Express apps by setting various HTTP headers.|</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="str">
         <f>IF('01 - COTS List'!B13="","","|**"&amp;'01 - COTS List'!B13&amp;"**|"&amp;'01 - COTS List'!C13&amp;"|"&amp;'01 - COTS List'!D13&amp;"|"&amp;'01 - COTS List'!E13&amp;"|"&amp;'01 - COTS List'!F13&amp;"|")</f>
-        <v>|**lodash**|4.*.*|https://www.npmjs.com/package/lodash|MIT|The Lodash library exported as Node.js modules.|</v>
+        <v>|**jwt-decode**|2.*.*|https://www.npmjs.com/package/jwt-decode|MIT|jwt-decode is a small browser library that helps decoding JWTs token which are Base64Url encoded.|</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="str">
         <f>IF('01 - COTS List'!B14="","","|**"&amp;'01 - COTS List'!B14&amp;"**|"&amp;'01 - COTS List'!C14&amp;"|"&amp;'01 - COTS List'!D14&amp;"|"&amp;'01 - COTS List'!E14&amp;"|"&amp;'01 - COTS List'!F14&amp;"|")</f>
-        <v>|**log4js**|3.*.*|https://www.npmjs.com/package/log4js|MIT|This is a conversion of the log4js framework to work with node|</v>
+        <v>|**lodash**|4.*.*|https://www.npmjs.com/package/lodash|MIT|The Lodash library exported as Node.js modules.|</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="str">
         <f>IF('01 - COTS List'!B15="","","|**"&amp;'01 - COTS List'!B15&amp;"**|"&amp;'01 - COTS List'!C15&amp;"|"&amp;'01 - COTS List'!D15&amp;"|"&amp;'01 - COTS List'!E15&amp;"|"&amp;'01 - COTS List'!F15&amp;"|")</f>
-        <v>|**mime**|2.*.*|https://www.npmjs.com/package/mime|MIT|A comprehensive, compact MIME type module.|</v>
+        <v>|**log4js**|3.*.*|https://www.npmjs.com/package/log4js|MIT|This is a conversion of the log4js framework to work with node|</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="str">
         <f>IF('01 - COTS List'!B16="","","|**"&amp;'01 - COTS List'!B16&amp;"**|"&amp;'01 - COTS List'!C16&amp;"|"&amp;'01 - COTS List'!D16&amp;"|"&amp;'01 - COTS List'!E16&amp;"|"&amp;'01 - COTS List'!F16&amp;"|")</f>
-        <v>|**Node**|10.*.*|https://nodejs.org/en/|MIT|Node.js is a JavaScript runtime built on Chrome's V8 JavaScript engine.|</v>
+        <v>|**mime**|2.*.*|https://www.npmjs.com/package/mime|MIT|A comprehensive, compact MIME type module.|</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="str">
         <f>IF('01 - COTS List'!B17="","","|**"&amp;'01 - COTS List'!B17&amp;"**|"&amp;'01 - COTS List'!C17&amp;"|"&amp;'01 - COTS List'!D17&amp;"|"&amp;'01 - COTS List'!E17&amp;"|"&amp;'01 - COTS List'!F17&amp;"|")</f>
-        <v>|**passport**|0.*.*|https://www.npmjs.com/package/passport|MIT|Passport's sole purpose is to authenticate requests, which it does through an extensible set of plugins known as strategies.|</v>
+        <v>|**Node**|10.*.*|https://nodejs.org/en/|MIT|Node.js is a JavaScript runtime built on Chrome's V8 JavaScript engine.|</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="str">
         <f>IF('01 - COTS List'!B18="","","|**"&amp;'01 - COTS List'!B18&amp;"**|"&amp;'01 - COTS List'!C18&amp;"|"&amp;'01 - COTS List'!D18&amp;"|"&amp;'01 - COTS List'!E18&amp;"|"&amp;'01 - COTS List'!F18&amp;"|")</f>
-        <v>|**passport-jwt**|4.*.*|https://www.npmjs.com/package/passport-jwt|MIT|A Passport strategy for authenticating with a JSON Web Token.|</v>
+        <v>|**passport**|0.*.*|https://www.npmjs.com/package/passport|MIT|Passport's sole purpose is to authenticate requests, which it does through an extensible set of plugins known as strategies.|</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="str">
         <f>IF('01 - COTS List'!B19="","","|**"&amp;'01 - COTS List'!B19&amp;"**|"&amp;'01 - COTS List'!C19&amp;"|"&amp;'01 - COTS List'!D19&amp;"|"&amp;'01 - COTS List'!E19&amp;"|"&amp;'01 - COTS List'!F19&amp;"|")</f>
-        <v>|**pg**|7.*.*|https://www.npmjs.com/package/pg|MIT|Non-blocking PostgreSQL client for Node.js. Pure JavaScript and optional native libpq bindings.|</v>
+        <v>|**passport-jwt**|4.*.*|https://www.npmjs.com/package/passport-jwt|MIT|A Passport strategy for authenticating with a JSON Web Token.|</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="str">
         <f>IF('01 - COTS List'!B20="","","|**"&amp;'01 - COTS List'!B20&amp;"**|"&amp;'01 - COTS List'!C20&amp;"|"&amp;'01 - COTS List'!D20&amp;"|"&amp;'01 - COTS List'!E20&amp;"|"&amp;'01 - COTS List'!F20&amp;"|")</f>
-        <v>|**PostGIS**|2.*.*|https://postgis.net/|GPLv2|PostGIS is a spatial database extender for PostgreSQL object-relational database. It adds support for geographic objects allowing location queries to be run in SQL.|</v>
+        <v>|**pg**|7.*.*|https://www.npmjs.com/package/pg|MIT|Non-blocking PostgreSQL client for Node.js. Pure JavaScript and optional native libpq bindings.|</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="str">
         <f>IF('01 - COTS List'!B21="","","|**"&amp;'01 - COTS List'!B21&amp;"**|"&amp;'01 - COTS List'!C21&amp;"|"&amp;'01 - COTS List'!D21&amp;"|"&amp;'01 - COTS List'!E21&amp;"|"&amp;'01 - COTS List'!F21&amp;"|")</f>
-        <v>|**PostgreSQL**|9.*|https://www.postgresql.org/|PostgreSQL License|PostgreSQL, is an object-relational database management system (ORDBMS) with an emphasis on extensibility and standards compliance|</v>
+        <v>|**PostGIS**|2.*.*|https://postgis.net/|GPLv2|PostGIS is a spatial database extender for PostgreSQL object-relational database. It adds support for geographic objects allowing location queries to be run in SQL.|</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="str">
         <f>IF('01 - COTS List'!B22="","","|**"&amp;'01 - COTS List'!B22&amp;"**|"&amp;'01 - COTS List'!C22&amp;"|"&amp;'01 - COTS List'!D22&amp;"|"&amp;'01 - COTS List'!E22&amp;"|"&amp;'01 - COTS List'!F22&amp;"|")</f>
-        <v>|**sequelize**|4.*.*|https://www.npmjs.com/package/sequelize|MIT|Sequelize is a promise-based Node.js ORM for Postgres, MySQL, SQLite and Microsoft SQL Server. It features solid transaction support, relations, read replication and more.|</v>
+        <v>|**PostgreSQL**|9.*|https://www.postgresql.org/|PostgreSQL License|PostgreSQL, is an object-relational database management system (ORDBMS) with an emphasis on extensibility and standards compliance|</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="str">
         <f>IF('01 - COTS List'!B23="","","|**"&amp;'01 - COTS List'!B23&amp;"**|"&amp;'01 - COTS List'!C23&amp;"|"&amp;'01 - COTS List'!D23&amp;"|"&amp;'01 - COTS List'!E23&amp;"|"&amp;'01 - COTS List'!F23&amp;"|")</f>
-        <v>|**swagger-ui-express**|3.*.*|https://www.npmjs.com/package/swagger-ui-express|MIT|API documentation generator|</v>
+        <v>|**sequelize**|4.*.*|https://www.npmjs.com/package/sequelize|MIT|Sequelize is a promise-based Node.js ORM for Postgres, MySQL, SQLite and Microsoft SQL Server. It features solid transaction support, relations, read replication and more.|</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="str">
         <f>IF('01 - COTS List'!B24="","","|**"&amp;'01 - COTS List'!B24&amp;"**|"&amp;'01 - COTS List'!C24&amp;"|"&amp;'01 - COTS List'!D24&amp;"|"&amp;'01 - COTS List'!E24&amp;"|"&amp;'01 - COTS List'!F24&amp;"|")</f>
-        <v>|**useragent**|2.*.*|https://www.npmjs.com/package/useragent|MIT|Useragent originated as port of browserscope.org's user agent parser project also known as ua-parser.|</v>
+        <v>|**swagger-ui-express**|3.*.*|https://www.npmjs.com/package/swagger-ui-express|MIT|API documentation generator|</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="str">
         <f>IF('01 - COTS List'!B25="","","|**"&amp;'01 - COTS List'!B25&amp;"**|"&amp;'01 - COTS List'!C25&amp;"|"&amp;'01 - COTS List'!D25&amp;"|"&amp;'01 - COTS List'!E25&amp;"|"&amp;'01 - COTS List'!F25&amp;"|")</f>
-        <v>|**yamljs**|0.*.*|https://www.npmjs.com/package/yamljs|MIT|Standalone JavaScript YAML 1.2 Parser &amp; Encoder. Works under node.js and all major browsers. Also brings command line YAML/JSON conversion tools.|</v>
+        <v>|**useragent**|2.*.*|https://www.npmjs.com/package/useragent|MIT|Useragent originated as port of browserscope.org's user agent parser project also known as ua-parser.|</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="str">
         <f>IF('01 - COTS List'!B26="","","|**"&amp;'01 - COTS List'!B26&amp;"**|"&amp;'01 - COTS List'!C26&amp;"|"&amp;'01 - COTS List'!D26&amp;"|"&amp;'01 - COTS List'!E26&amp;"|"&amp;'01 - COTS List'!F26&amp;"|")</f>
-        <v/>
+        <v>|**yamljs**|0.*.*|https://www.npmjs.com/package/yamljs|MIT|Standalone JavaScript YAML 1.2 Parser &amp; Encoder. Works under node.js and all major browsers. Also brings command line YAML/JSON conversion tools.|</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
